--- a/brailleToSoundApp/brailleToSoundApp/languages.xlsx
+++ b/brailleToSoundApp/brailleToSoundApp/languages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GIT\michalJanaGitHub.github.io\brailleToSoundApp\brailleToSoundApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8375EC3-9EB8-4767-A7D1-7D8485480FA5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C485F8-D6F5-46A9-9E61-8F5928E838DA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0FE4A93E-040C-454E-9FBD-34DA46F8D78F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="85">
   <si>
     <t>ENG</t>
   </si>
@@ -48,9 +48,6 @@
     <t xml:space="preserve">" }, </t>
   </si>
   <si>
-    <t>[{</t>
-  </si>
-  <si>
     <t>": { "</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>Ovladače zvuku</t>
   </si>
   <si>
-    <t>#LNG_DoSound</t>
-  </si>
-  <si>
     <t>Change</t>
   </si>
   <si>
@@ -225,9 +219,6 @@
     <t>Zvuk tečky</t>
   </si>
   <si>
-    <t>Text to Braille to Braille Morse Translator</t>
-  </si>
-  <si>
     <t>#LNG_Settings</t>
   </si>
   <si>
@@ -246,22 +237,76 @@
     <t>Nastavení</t>
   </si>
   <si>
-    <t>Překladač textu do brailské morzeovky</t>
-  </si>
-  <si>
     <t>Braillský překlad</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>f4</t>
+  </si>
+  <si>
+    <t>f5</t>
+  </si>
+  <si>
+    <t>f6</t>
+  </si>
+  <si>
+    <t>f7</t>
+  </si>
+  <si>
+    <t>f8</t>
+  </si>
+  <si>
+    <t>f9</t>
+  </si>
+  <si>
+    <t>f10</t>
+  </si>
+  <si>
+    <t>f11</t>
+  </si>
+  <si>
+    <t>f12</t>
+  </si>
+  <si>
+    <t>#LNG_DotSound</t>
+  </si>
+  <si>
+    <t>#LNG_Choice</t>
+  </si>
+  <si>
+    <t>Braille to Braille-Morse Translator</t>
+  </si>
+  <si>
+    <t>Překladač do braillské morzeovky</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -285,8 +330,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0CCAA8-9771-4C1E-AC50-91799C515696}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D24" sqref="D2:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +659,7 @@
     <col min="2" max="2" width="37.28515625" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="71.140625" customWidth="1"/>
-    <col min="5" max="5" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="7" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.28515625" customWidth="1"/>
@@ -626,32 +672,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2" t="str">
         <f>E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2&amp;K2&amp;L2&amp;M2&amp;N2&amp;O2</f>
-        <v xml:space="preserve">"#LNG_Title": { "ENG" : "Text to Braille to Braille Morse Translator", "CZ" : "Překladač textu do brailské morzeovky" }, </v>
+        <v xml:space="preserve">"#LNG_BrailleTranslation": { "ENG" : "Braille translation", "CZ" : "Braillský překlad" }, </v>
       </c>
       <c r="E2" t="str">
         <f>""""</f>
@@ -659,10 +738,10 @@
       </c>
       <c r="F2" t="str">
         <f>A2</f>
-        <v>#LNG_Title</v>
+        <v>#LNG_BrailleTranslation</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -672,10 +751,10 @@
       </c>
       <c r="J2" t="str">
         <f>B2</f>
-        <v>Text to Braille to Braille Morse Translator</v>
+        <v>Braille translation</v>
       </c>
       <c r="K2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L2" t="str">
         <f>C$1</f>
@@ -686,7 +765,7 @@
       </c>
       <c r="N2" t="str">
         <f>C2</f>
-        <v>Překladač textu do brailské morzeovky</v>
+        <v>Braillský překlad</v>
       </c>
       <c r="O2" t="s">
         <v>4</v>
@@ -694,28 +773,28 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D7" si="0">E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;O3</f>
-        <v xml:space="preserve">"#LNG_Description": { "ENG" : "Appp translates text plays it out in Braille Morse", "CZ" : "Aplikace přeloží text a přehraje v Braillské morzeovce" }, </v>
+        <f>E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;O3</f>
+        <v xml:space="preserve">"#LNG_Change_Imperative": { "ENG" : "Change", "CZ" : "Změň" }, </v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E23" si="1">""""</f>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F7" si="2">A3</f>
-        <v>#LNG_Description</v>
+        <f>A3</f>
+        <v>#LNG_Change_Imperative</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -724,22 +803,22 @@
         <v>3</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J7" si="3">B3</f>
-        <v>Appp translates text plays it out in Braille Morse</v>
+        <f>B3</f>
+        <v>Change</v>
       </c>
       <c r="K3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L7" si="4">C$1</f>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M3" t="s">
         <v>3</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N7" si="5">C3</f>
-        <v>Aplikace přeloží text a přehraje v Braillské morzeovce</v>
+        <f>C3</f>
+        <v>Změň</v>
       </c>
       <c r="O3" t="s">
         <v>4</v>
@@ -747,28 +826,28 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">"#LNG_YourMessage": { "ENG" : "Your message", "CZ" : "Vaše zpráva" }, </v>
+        <f>E4&amp;F4&amp;G4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4&amp;N4&amp;O4</f>
+        <v xml:space="preserve">"#LNG_Choice": { "ENG" : "CZ", "CZ" : "ENG" }, </v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="2"/>
-        <v>#LNG_YourMessage</v>
+        <f>A4</f>
+        <v>#LNG_Choice</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -777,22 +856,22 @@
         <v>3</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="3"/>
-        <v>Your message</v>
+        <f>B4</f>
+        <v>CZ</v>
       </c>
       <c r="K4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="4"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M4" t="s">
         <v>3</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" si="5"/>
-        <v>Vaše zpráva</v>
+        <f>C4</f>
+        <v>ENG</v>
       </c>
       <c r="O4" t="s">
         <v>4</v>
@@ -800,28 +879,28 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">"#LNG_EnterSomeText": { "ENG" : "Enter some text to translate and play in Braille Morse", "CZ" : "Zadejte text pro překlad a přehrání v Braillské morzeovce" }, </v>
+        <f>E5&amp;F5&amp;G5&amp;H5&amp;I5&amp;J5&amp;K5&amp;L5&amp;M5&amp;N5&amp;O5</f>
+        <v xml:space="preserve">"#LNG_DelayBetweenCharacters": { "ENG" : "Delay between characters", "CZ" : "Prodleva mezi písmeny" }, </v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="2"/>
-        <v>#LNG_EnterSomeText</v>
+        <f>A5</f>
+        <v>#LNG_DelayBetweenCharacters</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -830,22 +909,22 @@
         <v>3</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="3"/>
-        <v>Enter some text to translate and play in Braille Morse</v>
+        <f>B5</f>
+        <v>Delay between characters</v>
       </c>
       <c r="K5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="4"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M5" t="s">
         <v>3</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" si="5"/>
-        <v>Zadejte text pro překlad a přehrání v Braillské morzeovce</v>
+        <f>C5</f>
+        <v>Prodleva mezi písmeny</v>
       </c>
       <c r="O5" t="s">
         <v>4</v>
@@ -853,28 +932,28 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">"#LNG_Play": { "ENG" : "Play", "CZ" : "Přehraj" }, </v>
+        <f>E6&amp;F6&amp;G6&amp;H6&amp;I6&amp;J6&amp;K6&amp;L6&amp;M6&amp;N6&amp;O6</f>
+        <v xml:space="preserve">"#LNG_DelayBetweenSounds": { "ENG" : "Delay between sounds", "CZ" : "Prodleva mezi zvuky" }, </v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="2"/>
-        <v>#LNG_Play</v>
+        <f>A6</f>
+        <v>#LNG_DelayBetweenSounds</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -883,22 +962,22 @@
         <v>3</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="3"/>
-        <v>Play</v>
+        <f>B6</f>
+        <v>Delay between sounds</v>
       </c>
       <c r="K6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="4"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M6" t="s">
         <v>3</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="5"/>
-        <v>Přehraj</v>
+        <f>C6</f>
+        <v>Prodleva mezi zvuky</v>
       </c>
       <c r="O6" t="s">
         <v>4</v>
@@ -906,28 +985,28 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">"#LNG_Pause": { "ENG" : "Pause", "CZ" : "Pauza" }, </v>
+        <f>E7&amp;F7&amp;G7&amp;H7&amp;I7&amp;J7&amp;K7&amp;L7&amp;M7&amp;N7&amp;O7</f>
+        <v xml:space="preserve">"#LNG_DelayBetweenTriples": { "ENG" : "Delay between triples", "CZ" : "Prodleva mezi trojicemi" }, </v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="2"/>
-        <v>#LNG_Pause</v>
+        <f>A7</f>
+        <v>#LNG_DelayBetweenTriples</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -936,22 +1015,22 @@
         <v>3</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="3"/>
-        <v>Pause</v>
+        <f>B7</f>
+        <v>Delay between triples</v>
       </c>
       <c r="K7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="4"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M7" t="s">
         <v>3</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="5"/>
-        <v>Pauza</v>
+        <f>C7</f>
+        <v>Prodleva mezi trojicemi</v>
       </c>
       <c r="O7" t="s">
         <v>4</v>
@@ -959,17 +1038,17 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D8" t="str">
         <f>E8&amp;F8&amp;G8&amp;H8&amp;I8&amp;J8&amp;K8&amp;L8&amp;M8&amp;N8&amp;O8</f>
-        <v xml:space="preserve">"#LNG_Stop": { "ENG" : "Stop", "CZ" : "Stop" }, </v>
+        <v xml:space="preserve">"#LNG_DelayBetweenWords": { "ENG" : "Delay between words", "CZ" : "Prodleva mezi slovy" }, </v>
       </c>
       <c r="E8" t="str">
         <f>""""</f>
@@ -977,10 +1056,10 @@
       </c>
       <c r="F8" t="str">
         <f>A8</f>
-        <v>#LNG_Stop</v>
+        <v>#LNG_DelayBetweenWords</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -990,10 +1069,10 @@
       </c>
       <c r="J8" t="str">
         <f>B8</f>
-        <v>Stop</v>
+        <v>Delay between words</v>
       </c>
       <c r="K8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L8" t="str">
         <f>C$1</f>
@@ -1004,7 +1083,7 @@
       </c>
       <c r="N8" t="str">
         <f>C8</f>
-        <v>Stop</v>
+        <v>Prodleva mezi slovy</v>
       </c>
       <c r="O8" t="s">
         <v>4</v>
@@ -1012,28 +1091,28 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" ref="D9:D12" si="6">E9&amp;F9&amp;G9&amp;H9&amp;I9&amp;J9&amp;K9&amp;L9&amp;M9&amp;N9&amp;O9</f>
-        <v xml:space="preserve">"#LNG_BrailleTranslation": { "ENG" : "Braille translation", "CZ" : "Braillský překlad" }, </v>
+        <f>E9&amp;F9&amp;G9&amp;H9&amp;I9&amp;J9&amp;K9&amp;L9&amp;M9&amp;N9&amp;O9</f>
+        <v xml:space="preserve">"#LNG_Description": { "ENG" : "Appp translates text plays it out in Braille Morse", "CZ" : "Aplikace přeloží text a přehraje v Braillské morzeovce" }, </v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" ref="F9:F12" si="7">A9</f>
-        <v>#LNG_BrailleTranslation</v>
+        <f>A9</f>
+        <v>#LNG_Description</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
@@ -1042,22 +1121,22 @@
         <v>3</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" ref="J9:J12" si="8">B9</f>
-        <v>Braille translation</v>
+        <f>B9</f>
+        <v>Appp translates text plays it out in Braille Morse</v>
       </c>
       <c r="K9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" ref="L9:L12" si="9">C$1</f>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M9" t="s">
         <v>3</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" ref="N9:N12" si="10">C9</f>
-        <v>Braillský překlad</v>
+        <f>C9</f>
+        <v>Aplikace přeloží text a přehraje v Braillské morzeovce</v>
       </c>
       <c r="O9" t="s">
         <v>4</v>
@@ -1065,28 +1144,28 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">"#LNG_ToggleVisualTranslation": { "ENG" : "Show / hide visual Braille Translation", "CZ" : "Zobrazí / schová braillský překlad" }, </v>
+        <f>E10&amp;F10&amp;G10&amp;H10&amp;I10&amp;J10&amp;K10&amp;L10&amp;M10&amp;N10&amp;O10</f>
+        <v xml:space="preserve">"#LNG_DotSound": { "ENG" : "Dot sound", "CZ" : "Zvuk tečky" }, </v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="7"/>
-        <v>#LNG_ToggleVisualTranslation</v>
+        <f>A10</f>
+        <v>#LNG_DotSound</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
@@ -1095,22 +1174,22 @@
         <v>3</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="8"/>
-        <v>Show / hide visual Braille Translation</v>
+        <f>B10</f>
+        <v>Dot sound</v>
       </c>
       <c r="K10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="9"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M10" t="s">
         <v>3</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="10"/>
-        <v>Zobrazí / schová braillský překlad</v>
+        <f>C10</f>
+        <v>Zvuk tečky</v>
       </c>
       <c r="O10" t="s">
         <v>4</v>
@@ -1118,28 +1197,28 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">"#LNG_ZoomIn": { "ENG" : "Zoom in", "CZ" : "Přiblížit" }, </v>
+        <f>E11&amp;F11&amp;G11&amp;H11&amp;I11&amp;J11&amp;K11&amp;L11&amp;M11&amp;N11&amp;O11</f>
+        <v xml:space="preserve">"#LNG_EnterSomeText": { "ENG" : "Enter some text to translate and play in Braille Morse", "CZ" : "Zadejte text pro překlad a přehrání v Braillské morzeovce" }, </v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="7"/>
-        <v>#LNG_ZoomIn</v>
+        <f>A11</f>
+        <v>#LNG_EnterSomeText</v>
       </c>
       <c r="G11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
@@ -1148,22 +1227,22 @@
         <v>3</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="8"/>
-        <v>Zoom in</v>
+        <f>B11</f>
+        <v>Enter some text to translate and play in Braille Morse</v>
       </c>
       <c r="K11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="9"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M11" t="s">
         <v>3</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="10"/>
-        <v>Přiblížit</v>
+        <f>C11</f>
+        <v>Zadejte text pro překlad a přehrání v Braillské morzeovce</v>
       </c>
       <c r="O11" t="s">
         <v>4</v>
@@ -1171,28 +1250,28 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">"#LNG_ZoonOut": { "ENG" : "Zoom out", "CZ" : "Oddálit" }, </v>
+        <f>E12&amp;F12&amp;G12&amp;H12&amp;I12&amp;J12&amp;K12&amp;L12&amp;M12&amp;N12&amp;O12</f>
+        <v xml:space="preserve">"#LNG_NoDotSound": { "ENG" : "No dot sound", "CZ" : "Zvuk prázdného místa" }, </v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="7"/>
-        <v>#LNG_ZoonOut</v>
+        <f>A12</f>
+        <v>#LNG_NoDotSound</v>
       </c>
       <c r="G12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H12" t="s">
         <v>0</v>
@@ -1201,22 +1280,22 @@
         <v>3</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="8"/>
-        <v>Zoom out</v>
+        <f>B12</f>
+        <v>No dot sound</v>
       </c>
       <c r="K12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="9"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M12" t="s">
         <v>3</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="10"/>
-        <v>Oddálit</v>
+        <f>C12</f>
+        <v>Zvuk prázdného místa</v>
       </c>
       <c r="O12" t="s">
         <v>4</v>
@@ -1224,28 +1303,28 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" ref="D13:D23" si="11">E13&amp;F13&amp;G13&amp;H13&amp;I13&amp;J13&amp;K13&amp;L13&amp;M13&amp;N13&amp;O13</f>
-        <v xml:space="preserve">"#LNG_SoundControls": { "ENG" : "Sound Controls", "CZ" : "Ovladače zvuku" }, </v>
+        <f>E13&amp;F13&amp;G13&amp;H13&amp;I13&amp;J13&amp;K13&amp;L13&amp;M13&amp;N13&amp;O13</f>
+        <v xml:space="preserve">"#LNG_Pause": { "ENG" : "Pause", "CZ" : "Pauza" }, </v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" ref="F13:F23" si="12">A13</f>
-        <v>#LNG_SoundControls</v>
+        <f>A13</f>
+        <v>#LNG_Pause</v>
       </c>
       <c r="G13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" t="s">
         <v>0</v>
@@ -1254,22 +1333,22 @@
         <v>3</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" ref="J13:J23" si="13">B13</f>
-        <v>Sound Controls</v>
+        <f>B13</f>
+        <v>Pause</v>
       </c>
       <c r="K13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" ref="L13:L23" si="14">C$1</f>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M13" t="s">
         <v>3</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" ref="N13:N23" si="15">C13</f>
-        <v>Ovladače zvuku</v>
+        <f>C13</f>
+        <v>Pauza</v>
       </c>
       <c r="O13" t="s">
         <v>4</v>
@@ -1277,28 +1356,28 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">"#LNG_ToggleSoundControls": { "ENG" : "Show / hide sound controls", "CZ" : "Zobrazí / schová ovládače zvuku" }, </v>
+        <f>E14&amp;F14&amp;G14&amp;H14&amp;I14&amp;J14&amp;K14&amp;L14&amp;M14&amp;N14&amp;O14</f>
+        <v xml:space="preserve">"#LNG_Play": { "ENG" : "Play", "CZ" : "Přehraj" }, </v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="12"/>
-        <v>#LNG_ToggleSoundControls</v>
+        <f>A14</f>
+        <v>#LNG_Play</v>
       </c>
       <c r="G14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H14" t="s">
         <v>0</v>
@@ -1307,22 +1386,22 @@
         <v>3</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="13"/>
-        <v>Show / hide sound controls</v>
+        <f>B14</f>
+        <v>Play</v>
       </c>
       <c r="K14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="14"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M14" t="s">
         <v>3</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="15"/>
-        <v>Zobrazí / schová ovládače zvuku</v>
+        <f>C14</f>
+        <v>Přehraj</v>
       </c>
       <c r="O14" t="s">
         <v>4</v>
@@ -1330,28 +1409,28 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
         <v>65</v>
       </c>
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" ref="D15:D16" si="16">E15&amp;F15&amp;G15&amp;H15&amp;I15&amp;J15&amp;K15&amp;L15&amp;M15&amp;N15&amp;O15</f>
+        <f>E15&amp;F15&amp;G15&amp;H15&amp;I15&amp;J15&amp;K15&amp;L15&amp;M15&amp;N15&amp;O15</f>
         <v xml:space="preserve">"#LNG_Settings": { "ENG" : "Settings", "CZ" : "Nastavení" }, </v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" ref="F15:F16" si="17">A15</f>
+        <f>A15</f>
         <v>#LNG_Settings</v>
       </c>
       <c r="G15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H15" t="s">
         <v>0</v>
@@ -1360,21 +1439,21 @@
         <v>3</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" ref="J15:J16" si="18">B15</f>
+        <f>B15</f>
         <v>Settings</v>
       </c>
       <c r="K15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L16" si="19">C$1</f>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M15" t="s">
         <v>3</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" ref="N15:N16" si="20">C15</f>
+        <f>C15</f>
         <v>Nastavení</v>
       </c>
       <c r="O15" t="s">
@@ -1383,28 +1462,28 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">"#LNG_ToggleSettings": { "ENG" : "Show/hide settings", "CZ" : "Zobrazí/schová nastavení" }, </v>
+        <f>E16&amp;F16&amp;G16&amp;H16&amp;I16&amp;J16&amp;K16&amp;L16&amp;M16&amp;N16&amp;O16</f>
+        <v xml:space="preserve">"#LNG_SoundControls": { "ENG" : "Sound Controls", "CZ" : "Ovladače zvuku" }, </v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="17"/>
-        <v>#LNG_ToggleSettings</v>
+        <f>A16</f>
+        <v>#LNG_SoundControls</v>
       </c>
       <c r="G16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H16" t="s">
         <v>0</v>
@@ -1413,22 +1492,22 @@
         <v>3</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="18"/>
-        <v>Show/hide settings</v>
+        <f>B16</f>
+        <v>Sound Controls</v>
       </c>
       <c r="K16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="19"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M16" t="s">
         <v>3</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="20"/>
-        <v>Zobrazí/schová nastavení</v>
+        <f>C16</f>
+        <v>Ovladače zvuku</v>
       </c>
       <c r="O16" t="s">
         <v>4</v>
@@ -1436,28 +1515,28 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">"#LNG_DoSound": { "ENG" : "Dot sound", "CZ" : "Zvuk tečky" }, </v>
+        <f>E17&amp;F17&amp;G17&amp;H17&amp;I17&amp;J17&amp;K17&amp;L17&amp;M17&amp;N17&amp;O17</f>
+        <v xml:space="preserve">"#LNG_Stop": { "ENG" : "Stop", "CZ" : "Stop" }, </v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="12"/>
-        <v>#LNG_DoSound</v>
+        <f>A17</f>
+        <v>#LNG_Stop</v>
       </c>
       <c r="G17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H17" t="s">
         <v>0</v>
@@ -1466,22 +1545,22 @@
         <v>3</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="13"/>
-        <v>Dot sound</v>
+        <f>B17</f>
+        <v>Stop</v>
       </c>
       <c r="K17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="14"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M17" t="s">
         <v>3</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="15"/>
-        <v>Zvuk tečky</v>
+        <f>C17</f>
+        <v>Stop</v>
       </c>
       <c r="O17" t="s">
         <v>4</v>
@@ -1489,28 +1568,28 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">"#LNG_NoDotSound": { "ENG" : "No dot sound", "CZ" : "Zvuk prázdného místa" }, </v>
+        <f>E18&amp;F18&amp;G18&amp;H18&amp;I18&amp;J18&amp;K18&amp;L18&amp;M18&amp;N18&amp;O18</f>
+        <v xml:space="preserve">"#LNG_Title": { "ENG" : "Braille to Braille-Morse Translator", "CZ" : "Překladač do braillské morzeovky" }, </v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="12"/>
-        <v>#LNG_NoDotSound</v>
+        <f>A18</f>
+        <v>#LNG_Title</v>
       </c>
       <c r="G18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H18" t="s">
         <v>0</v>
@@ -1519,22 +1598,22 @@
         <v>3</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="13"/>
-        <v>No dot sound</v>
+        <f>B18</f>
+        <v>Braille to Braille-Morse Translator</v>
       </c>
       <c r="K18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="14"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M18" t="s">
         <v>3</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="15"/>
-        <v>Zvuk prázdného místa</v>
+        <f>C18</f>
+        <v>Překladač do braillské morzeovky</v>
       </c>
       <c r="O18" t="s">
         <v>4</v>
@@ -1542,28 +1621,28 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">"#LNG_Change_Imperative": { "ENG" : "Change", "CZ" : "Změň" }, </v>
+        <f>E19&amp;F19&amp;G19&amp;H19&amp;I19&amp;J19&amp;K19&amp;L19&amp;M19&amp;N19&amp;O19</f>
+        <v xml:space="preserve">"#LNG_ToggleSettings": { "ENG" : "Show/hide settings", "CZ" : "Zobrazí/schová nastavení" }, </v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="12"/>
-        <v>#LNG_Change_Imperative</v>
+        <f>A19</f>
+        <v>#LNG_ToggleSettings</v>
       </c>
       <c r="G19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H19" t="s">
         <v>0</v>
@@ -1572,22 +1651,22 @@
         <v>3</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="13"/>
-        <v>Change</v>
+        <f>B19</f>
+        <v>Show/hide settings</v>
       </c>
       <c r="K19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="14"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M19" t="s">
         <v>3</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="15"/>
-        <v>Změň</v>
+        <f>C19</f>
+        <v>Zobrazí/schová nastavení</v>
       </c>
       <c r="O19" t="s">
         <v>4</v>
@@ -1595,28 +1674,28 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">"#LNG_DelayBetweenSounds": { "ENG" : "Delay between sounds", "CZ" : "Prodleva mezi zvuky" }, </v>
+        <f>E20&amp;F20&amp;G20&amp;H20&amp;I20&amp;J20&amp;K20&amp;L20&amp;M20&amp;N20&amp;O20</f>
+        <v xml:space="preserve">"#LNG_ToggleSoundControls": { "ENG" : "Show / hide sound controls", "CZ" : "Zobrazí / schová ovládače zvuku" }, </v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="12"/>
-        <v>#LNG_DelayBetweenSounds</v>
+        <f>A20</f>
+        <v>#LNG_ToggleSoundControls</v>
       </c>
       <c r="G20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H20" t="s">
         <v>0</v>
@@ -1625,22 +1704,22 @@
         <v>3</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="13"/>
-        <v>Delay between sounds</v>
+        <f>B20</f>
+        <v>Show / hide sound controls</v>
       </c>
       <c r="K20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="14"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M20" t="s">
         <v>3</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="15"/>
-        <v>Prodleva mezi zvuky</v>
+        <f>C20</f>
+        <v>Zobrazí / schová ovládače zvuku</v>
       </c>
       <c r="O20" t="s">
         <v>4</v>
@@ -1648,28 +1727,28 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">"#LNG_DelayBetweenTriples": { "ENG" : "Delay between triples", "CZ" : "Prodleva mezi trojicemi" }, </v>
+        <f>E21&amp;F21&amp;G21&amp;H21&amp;I21&amp;J21&amp;K21&amp;L21&amp;M21&amp;N21&amp;O21</f>
+        <v xml:space="preserve">"#LNG_ToggleVisualTranslation": { "ENG" : "Show / hide visual Braille Translation", "CZ" : "Zobrazí / schová braillský překlad" }, </v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="12"/>
-        <v>#LNG_DelayBetweenTriples</v>
+        <f>A21</f>
+        <v>#LNG_ToggleVisualTranslation</v>
       </c>
       <c r="G21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H21" t="s">
         <v>0</v>
@@ -1678,22 +1757,22 @@
         <v>3</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="13"/>
-        <v>Delay between triples</v>
+        <f>B21</f>
+        <v>Show / hide visual Braille Translation</v>
       </c>
       <c r="K21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="14"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M21" t="s">
         <v>3</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="15"/>
-        <v>Prodleva mezi trojicemi</v>
+        <f>C21</f>
+        <v>Zobrazí / schová braillský překlad</v>
       </c>
       <c r="O21" t="s">
         <v>4</v>
@@ -1701,28 +1780,28 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">"#LNG_DelayBetweenCharacters": { "ENG" : "Delay between characters", "CZ" : "Prodleva mezi písmeny" }, </v>
+        <f>E22&amp;F22&amp;G22&amp;H22&amp;I22&amp;J22&amp;K22&amp;L22&amp;M22&amp;N22&amp;O22</f>
+        <v xml:space="preserve">"#LNG_YourMessage": { "ENG" : "Your message", "CZ" : "Vaše zpráva" }, </v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="12"/>
-        <v>#LNG_DelayBetweenCharacters</v>
+        <f>A22</f>
+        <v>#LNG_YourMessage</v>
       </c>
       <c r="G22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H22" t="s">
         <v>0</v>
@@ -1731,22 +1810,22 @@
         <v>3</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="13"/>
-        <v>Delay between characters</v>
+        <f>B22</f>
+        <v>Your message</v>
       </c>
       <c r="K22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="14"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M22" t="s">
         <v>3</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="15"/>
-        <v>Prodleva mezi písmeny</v>
+        <f>C22</f>
+        <v>Vaše zpráva</v>
       </c>
       <c r="O22" t="s">
         <v>4</v>
@@ -1754,28 +1833,28 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">"#LNG_DelayBetweenWords": { "ENG" : "Delay between words", "CZ" : "Prodleva mezi slovy" }, </v>
+        <f>E23&amp;F23&amp;G23&amp;H23&amp;I23&amp;J23&amp;K23&amp;L23&amp;M23&amp;N23&amp;O23</f>
+        <v xml:space="preserve">"#LNG_ZoomIn": { "ENG" : "Zoom in", "CZ" : "Přiblížit" }, </v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="12"/>
-        <v>#LNG_DelayBetweenWords</v>
+        <f>A23</f>
+        <v>#LNG_ZoomIn</v>
       </c>
       <c r="G23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H23" t="s">
         <v>0</v>
@@ -1784,28 +1863,84 @@
         <v>3</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="13"/>
-        <v>Delay between words</v>
+        <f>B23</f>
+        <v>Zoom in</v>
       </c>
       <c r="K23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="14"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M23" t="s">
         <v>3</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="15"/>
-        <v>Prodleva mezi slovy</v>
+        <f>C23</f>
+        <v>Přiblížit</v>
       </c>
       <c r="O23" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="str">
+        <f>E24&amp;F24&amp;G24&amp;H24&amp;I24&amp;J24&amp;K24&amp;L24&amp;M24&amp;N24&amp;O24</f>
+        <v xml:space="preserve">"#LNG_ZoonOut": { "ENG" : "Zoom out", "CZ" : "Oddálit" }, </v>
+      </c>
+      <c r="E24" t="str">
+        <f>""""</f>
+        <v>"</v>
+      </c>
+      <c r="F24" t="str">
+        <f>A24</f>
+        <v>#LNG_ZoonOut</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" t="str">
+        <f>B24</f>
+        <v>Zoom out</v>
+      </c>
+      <c r="K24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" t="str">
+        <f>C$1</f>
+        <v>CZ</v>
+      </c>
+      <c r="M24" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" t="str">
+        <f>C24</f>
+        <v>Oddálit</v>
+      </c>
+      <c r="O24" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O24">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/brailleToSoundApp/brailleToSoundApp/languages.xlsx
+++ b/brailleToSoundApp/brailleToSoundApp/languages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GIT\michalJanaGitHub.github.io\brailleToSoundApp\brailleToSoundApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C485F8-D6F5-46A9-9E61-8F5928E838DA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4C70F3-168B-4B97-9BB1-DADBA638ED0F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0FE4A93E-040C-454E-9FBD-34DA46F8D78F}"/>
   </bookViews>
@@ -138,15 +138,6 @@
     <t>#LNG_ToggleSoundControls</t>
   </si>
   <si>
-    <t>Dot sound</t>
-  </si>
-  <si>
-    <t>No dot sound</t>
-  </si>
-  <si>
-    <t>#LNG_NoDotSound</t>
-  </si>
-  <si>
     <t>Show / hide sound controls</t>
   </si>
   <si>
@@ -213,9 +204,6 @@
     <t>Prodleva mezi slovy</t>
   </si>
   <si>
-    <t>Zvuk prázdného místa</t>
-  </si>
-  <si>
     <t>Zvuk tečky</t>
   </si>
   <si>
@@ -286,6 +274,18 @@
   </si>
   <si>
     <t>Překladač do braillské morzeovky</t>
+  </si>
+  <si>
+    <t>Dot Sound</t>
+  </si>
+  <si>
+    <t>Empty Dot Sound</t>
+  </si>
+  <si>
+    <t>#LNG_EmptyDotSound</t>
+  </si>
+  <si>
+    <t>Zvuk prázdné tečky</t>
   </si>
 </sst>
 </file>
@@ -650,7 +650,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D2:D24"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,40 +682,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -726,18 +726,18 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D2" t="str">
-        <f>E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2&amp;K2&amp;L2&amp;M2&amp;N2&amp;O2</f>
+        <f t="shared" ref="D2:D24" si="0">E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2&amp;K2&amp;L2&amp;M2&amp;N2&amp;O2</f>
         <v xml:space="preserve">"#LNG_BrailleTranslation": { "ENG" : "Braille translation", "CZ" : "Braillský překlad" }, </v>
       </c>
       <c r="E2" t="str">
-        <f>""""</f>
+        <f t="shared" ref="E2:E24" si="1">""""</f>
         <v>"</v>
       </c>
       <c r="F2" t="str">
-        <f>A2</f>
+        <f t="shared" ref="F2:F24" si="2">A2</f>
         <v>#LNG_BrailleTranslation</v>
       </c>
       <c r="G2" t="s">
@@ -750,21 +750,21 @@
         <v>3</v>
       </c>
       <c r="J2" t="str">
-        <f>B2</f>
+        <f t="shared" ref="J2:J24" si="3">B2</f>
         <v>Braille translation</v>
       </c>
       <c r="K2" t="s">
         <v>6</v>
       </c>
       <c r="L2" t="str">
-        <f>C$1</f>
+        <f t="shared" ref="L2:L24" si="4">C$1</f>
         <v>CZ</v>
       </c>
       <c r="M2" t="s">
         <v>3</v>
       </c>
       <c r="N2" t="str">
-        <f>C2</f>
+        <f t="shared" ref="N2:N24" si="5">C2</f>
         <v>Braillský překlad</v>
       </c>
       <c r="O2" t="s">
@@ -773,24 +773,24 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" t="str">
-        <f>E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;O3</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">"#LNG_Change_Imperative": { "ENG" : "Change", "CZ" : "Změň" }, </v>
       </c>
       <c r="E3" t="str">
-        <f>""""</f>
+        <f t="shared" si="1"/>
         <v>"</v>
       </c>
       <c r="F3" t="str">
-        <f>A3</f>
+        <f t="shared" si="2"/>
         <v>#LNG_Change_Imperative</v>
       </c>
       <c r="G3" t="s">
@@ -803,21 +803,21 @@
         <v>3</v>
       </c>
       <c r="J3" t="str">
-        <f>B3</f>
+        <f t="shared" si="3"/>
         <v>Change</v>
       </c>
       <c r="K3" t="s">
         <v>6</v>
       </c>
       <c r="L3" t="str">
-        <f>C$1</f>
+        <f t="shared" si="4"/>
         <v>CZ</v>
       </c>
       <c r="M3" t="s">
         <v>3</v>
       </c>
       <c r="N3" t="str">
-        <f>C3</f>
+        <f t="shared" si="5"/>
         <v>Změň</v>
       </c>
       <c r="O3" t="s">
@@ -826,7 +826,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -835,15 +835,15 @@
         <v>0</v>
       </c>
       <c r="D4" t="str">
-        <f>E4&amp;F4&amp;G4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4&amp;N4&amp;O4</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">"#LNG_Choice": { "ENG" : "CZ", "CZ" : "ENG" }, </v>
       </c>
       <c r="E4" t="str">
-        <f>""""</f>
+        <f t="shared" si="1"/>
         <v>"</v>
       </c>
       <c r="F4" t="str">
-        <f>A4</f>
+        <f t="shared" si="2"/>
         <v>#LNG_Choice</v>
       </c>
       <c r="G4" t="s">
@@ -856,21 +856,21 @@
         <v>3</v>
       </c>
       <c r="J4" t="str">
-        <f>B4</f>
+        <f t="shared" si="3"/>
         <v>CZ</v>
       </c>
       <c r="K4" t="s">
         <v>6</v>
       </c>
       <c r="L4" t="str">
-        <f>C$1</f>
+        <f t="shared" si="4"/>
         <v>CZ</v>
       </c>
       <c r="M4" t="s">
         <v>3</v>
       </c>
       <c r="N4" t="str">
-        <f>C4</f>
+        <f t="shared" si="5"/>
         <v>ENG</v>
       </c>
       <c r="O4" t="s">
@@ -879,24 +879,24 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D5" t="str">
-        <f>E5&amp;F5&amp;G5&amp;H5&amp;I5&amp;J5&amp;K5&amp;L5&amp;M5&amp;N5&amp;O5</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">"#LNG_DelayBetweenCharacters": { "ENG" : "Delay between characters", "CZ" : "Prodleva mezi písmeny" }, </v>
       </c>
       <c r="E5" t="str">
-        <f>""""</f>
+        <f t="shared" si="1"/>
         <v>"</v>
       </c>
       <c r="F5" t="str">
-        <f>A5</f>
+        <f t="shared" si="2"/>
         <v>#LNG_DelayBetweenCharacters</v>
       </c>
       <c r="G5" t="s">
@@ -909,21 +909,21 @@
         <v>3</v>
       </c>
       <c r="J5" t="str">
-        <f>B5</f>
+        <f t="shared" si="3"/>
         <v>Delay between characters</v>
       </c>
       <c r="K5" t="s">
         <v>6</v>
       </c>
       <c r="L5" t="str">
-        <f>C$1</f>
+        <f t="shared" si="4"/>
         <v>CZ</v>
       </c>
       <c r="M5" t="s">
         <v>3</v>
       </c>
       <c r="N5" t="str">
-        <f>C5</f>
+        <f t="shared" si="5"/>
         <v>Prodleva mezi písmeny</v>
       </c>
       <c r="O5" t="s">
@@ -932,24 +932,24 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D6" t="str">
-        <f>E6&amp;F6&amp;G6&amp;H6&amp;I6&amp;J6&amp;K6&amp;L6&amp;M6&amp;N6&amp;O6</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">"#LNG_DelayBetweenSounds": { "ENG" : "Delay between sounds", "CZ" : "Prodleva mezi zvuky" }, </v>
       </c>
       <c r="E6" t="str">
-        <f>""""</f>
+        <f t="shared" si="1"/>
         <v>"</v>
       </c>
       <c r="F6" t="str">
-        <f>A6</f>
+        <f t="shared" si="2"/>
         <v>#LNG_DelayBetweenSounds</v>
       </c>
       <c r="G6" t="s">
@@ -962,21 +962,21 @@
         <v>3</v>
       </c>
       <c r="J6" t="str">
-        <f>B6</f>
+        <f t="shared" si="3"/>
         <v>Delay between sounds</v>
       </c>
       <c r="K6" t="s">
         <v>6</v>
       </c>
       <c r="L6" t="str">
-        <f>C$1</f>
+        <f t="shared" si="4"/>
         <v>CZ</v>
       </c>
       <c r="M6" t="s">
         <v>3</v>
       </c>
       <c r="N6" t="str">
-        <f>C6</f>
+        <f t="shared" si="5"/>
         <v>Prodleva mezi zvuky</v>
       </c>
       <c r="O6" t="s">
@@ -985,24 +985,24 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D7" t="str">
-        <f>E7&amp;F7&amp;G7&amp;H7&amp;I7&amp;J7&amp;K7&amp;L7&amp;M7&amp;N7&amp;O7</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">"#LNG_DelayBetweenTriples": { "ENG" : "Delay between triples", "CZ" : "Prodleva mezi trojicemi" }, </v>
       </c>
       <c r="E7" t="str">
-        <f>""""</f>
+        <f t="shared" si="1"/>
         <v>"</v>
       </c>
       <c r="F7" t="str">
-        <f>A7</f>
+        <f t="shared" si="2"/>
         <v>#LNG_DelayBetweenTriples</v>
       </c>
       <c r="G7" t="s">
@@ -1015,21 +1015,21 @@
         <v>3</v>
       </c>
       <c r="J7" t="str">
-        <f>B7</f>
+        <f t="shared" si="3"/>
         <v>Delay between triples</v>
       </c>
       <c r="K7" t="s">
         <v>6</v>
       </c>
       <c r="L7" t="str">
-        <f>C$1</f>
+        <f t="shared" si="4"/>
         <v>CZ</v>
       </c>
       <c r="M7" t="s">
         <v>3</v>
       </c>
       <c r="N7" t="str">
-        <f>C7</f>
+        <f t="shared" si="5"/>
         <v>Prodleva mezi trojicemi</v>
       </c>
       <c r="O7" t="s">
@@ -1038,24 +1038,24 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" t="str">
-        <f>E8&amp;F8&amp;G8&amp;H8&amp;I8&amp;J8&amp;K8&amp;L8&amp;M8&amp;N8&amp;O8</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">"#LNG_DelayBetweenWords": { "ENG" : "Delay between words", "CZ" : "Prodleva mezi slovy" }, </v>
       </c>
       <c r="E8" t="str">
-        <f>""""</f>
+        <f t="shared" si="1"/>
         <v>"</v>
       </c>
       <c r="F8" t="str">
-        <f>A8</f>
+        <f t="shared" si="2"/>
         <v>#LNG_DelayBetweenWords</v>
       </c>
       <c r="G8" t="s">
@@ -1068,21 +1068,21 @@
         <v>3</v>
       </c>
       <c r="J8" t="str">
-        <f>B8</f>
+        <f t="shared" si="3"/>
         <v>Delay between words</v>
       </c>
       <c r="K8" t="s">
         <v>6</v>
       </c>
       <c r="L8" t="str">
-        <f>C$1</f>
+        <f t="shared" si="4"/>
         <v>CZ</v>
       </c>
       <c r="M8" t="s">
         <v>3</v>
       </c>
       <c r="N8" t="str">
-        <f>C8</f>
+        <f t="shared" si="5"/>
         <v>Prodleva mezi slovy</v>
       </c>
       <c r="O8" t="s">
@@ -1100,15 +1100,15 @@
         <v>31</v>
       </c>
       <c r="D9" t="str">
-        <f>E9&amp;F9&amp;G9&amp;H9&amp;I9&amp;J9&amp;K9&amp;L9&amp;M9&amp;N9&amp;O9</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">"#LNG_Description": { "ENG" : "Appp translates text plays it out in Braille Morse", "CZ" : "Aplikace přeloží text a přehraje v Braillské morzeovce" }, </v>
       </c>
       <c r="E9" t="str">
-        <f>""""</f>
+        <f t="shared" si="1"/>
         <v>"</v>
       </c>
       <c r="F9" t="str">
-        <f>A9</f>
+        <f t="shared" si="2"/>
         <v>#LNG_Description</v>
       </c>
       <c r="G9" t="s">
@@ -1121,21 +1121,21 @@
         <v>3</v>
       </c>
       <c r="J9" t="str">
-        <f>B9</f>
+        <f t="shared" si="3"/>
         <v>Appp translates text plays it out in Braille Morse</v>
       </c>
       <c r="K9" t="s">
         <v>6</v>
       </c>
       <c r="L9" t="str">
-        <f>C$1</f>
+        <f t="shared" si="4"/>
         <v>CZ</v>
       </c>
       <c r="M9" t="s">
         <v>3</v>
       </c>
       <c r="N9" t="str">
-        <f>C9</f>
+        <f t="shared" si="5"/>
         <v>Aplikace přeloží text a přehraje v Braillské morzeovce</v>
       </c>
       <c r="O9" t="s">
@@ -1144,24 +1144,24 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
         <v>81</v>
       </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D10" t="str">
-        <f>E10&amp;F10&amp;G10&amp;H10&amp;I10&amp;J10&amp;K10&amp;L10&amp;M10&amp;N10&amp;O10</f>
-        <v xml:space="preserve">"#LNG_DotSound": { "ENG" : "Dot sound", "CZ" : "Zvuk tečky" }, </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">"#LNG_DotSound": { "ENG" : "Dot Sound", "CZ" : "Zvuk tečky" }, </v>
       </c>
       <c r="E10" t="str">
-        <f>""""</f>
+        <f t="shared" si="1"/>
         <v>"</v>
       </c>
       <c r="F10" t="str">
-        <f>A10</f>
+        <f t="shared" si="2"/>
         <v>#LNG_DotSound</v>
       </c>
       <c r="G10" t="s">
@@ -1174,21 +1174,21 @@
         <v>3</v>
       </c>
       <c r="J10" t="str">
-        <f>B10</f>
-        <v>Dot sound</v>
+        <f t="shared" si="3"/>
+        <v>Dot Sound</v>
       </c>
       <c r="K10" t="s">
         <v>6</v>
       </c>
       <c r="L10" t="str">
-        <f>C$1</f>
+        <f t="shared" si="4"/>
         <v>CZ</v>
       </c>
       <c r="M10" t="s">
         <v>3</v>
       </c>
       <c r="N10" t="str">
-        <f>C10</f>
+        <f t="shared" si="5"/>
         <v>Zvuk tečky</v>
       </c>
       <c r="O10" t="s">
@@ -1206,15 +1206,15 @@
         <v>29</v>
       </c>
       <c r="D11" t="str">
-        <f>E11&amp;F11&amp;G11&amp;H11&amp;I11&amp;J11&amp;K11&amp;L11&amp;M11&amp;N11&amp;O11</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">"#LNG_EnterSomeText": { "ENG" : "Enter some text to translate and play in Braille Morse", "CZ" : "Zadejte text pro překlad a přehrání v Braillské morzeovce" }, </v>
       </c>
       <c r="E11" t="str">
-        <f>""""</f>
+        <f t="shared" si="1"/>
         <v>"</v>
       </c>
       <c r="F11" t="str">
-        <f>A11</f>
+        <f t="shared" si="2"/>
         <v>#LNG_EnterSomeText</v>
       </c>
       <c r="G11" t="s">
@@ -1227,21 +1227,21 @@
         <v>3</v>
       </c>
       <c r="J11" t="str">
-        <f>B11</f>
+        <f t="shared" si="3"/>
         <v>Enter some text to translate and play in Braille Morse</v>
       </c>
       <c r="K11" t="s">
         <v>6</v>
       </c>
       <c r="L11" t="str">
-        <f>C$1</f>
+        <f t="shared" si="4"/>
         <v>CZ</v>
       </c>
       <c r="M11" t="s">
         <v>3</v>
       </c>
       <c r="N11" t="str">
-        <f>C11</f>
+        <f t="shared" si="5"/>
         <v>Zadejte text pro překlad a přehrání v Braillské morzeovce</v>
       </c>
       <c r="O11" t="s">
@@ -1250,25 +1250,25 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D12" t="str">
-        <f>E12&amp;F12&amp;G12&amp;H12&amp;I12&amp;J12&amp;K12&amp;L12&amp;M12&amp;N12&amp;O12</f>
-        <v xml:space="preserve">"#LNG_NoDotSound": { "ENG" : "No dot sound", "CZ" : "Zvuk prázdného místa" }, </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">"#LNG_EmptyDotSound": { "ENG" : "Empty Dot Sound", "CZ" : "Zvuk prázdné tečky" }, </v>
       </c>
       <c r="E12" t="str">
-        <f>""""</f>
+        <f t="shared" si="1"/>
         <v>"</v>
       </c>
       <c r="F12" t="str">
-        <f>A12</f>
-        <v>#LNG_NoDotSound</v>
+        <f t="shared" si="2"/>
+        <v>#LNG_EmptyDotSound</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
@@ -1280,22 +1280,22 @@
         <v>3</v>
       </c>
       <c r="J12" t="str">
-        <f>B12</f>
-        <v>No dot sound</v>
+        <f t="shared" si="3"/>
+        <v>Empty Dot Sound</v>
       </c>
       <c r="K12" t="s">
         <v>6</v>
       </c>
       <c r="L12" t="str">
-        <f>C$1</f>
+        <f t="shared" si="4"/>
         <v>CZ</v>
       </c>
       <c r="M12" t="s">
         <v>3</v>
       </c>
       <c r="N12" t="str">
-        <f>C12</f>
-        <v>Zvuk prázdného místa</v>
+        <f t="shared" si="5"/>
+        <v>Zvuk prázdné tečky</v>
       </c>
       <c r="O12" t="s">
         <v>4</v>
@@ -1312,15 +1312,15 @@
         <v>24</v>
       </c>
       <c r="D13" t="str">
-        <f>E13&amp;F13&amp;G13&amp;H13&amp;I13&amp;J13&amp;K13&amp;L13&amp;M13&amp;N13&amp;O13</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">"#LNG_Pause": { "ENG" : "Pause", "CZ" : "Pauza" }, </v>
       </c>
       <c r="E13" t="str">
-        <f>""""</f>
+        <f t="shared" si="1"/>
         <v>"</v>
       </c>
       <c r="F13" t="str">
-        <f>A13</f>
+        <f t="shared" si="2"/>
         <v>#LNG_Pause</v>
       </c>
       <c r="G13" t="s">
@@ -1333,21 +1333,21 @@
         <v>3</v>
       </c>
       <c r="J13" t="str">
-        <f>B13</f>
+        <f t="shared" si="3"/>
         <v>Pause</v>
       </c>
       <c r="K13" t="s">
         <v>6</v>
       </c>
       <c r="L13" t="str">
-        <f>C$1</f>
+        <f t="shared" si="4"/>
         <v>CZ</v>
       </c>
       <c r="M13" t="s">
         <v>3</v>
       </c>
       <c r="N13" t="str">
-        <f>C13</f>
+        <f t="shared" si="5"/>
         <v>Pauza</v>
       </c>
       <c r="O13" t="s">
@@ -1365,15 +1365,15 @@
         <v>23</v>
       </c>
       <c r="D14" t="str">
-        <f>E14&amp;F14&amp;G14&amp;H14&amp;I14&amp;J14&amp;K14&amp;L14&amp;M14&amp;N14&amp;O14</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">"#LNG_Play": { "ENG" : "Play", "CZ" : "Přehraj" }, </v>
       </c>
       <c r="E14" t="str">
-        <f>""""</f>
+        <f t="shared" si="1"/>
         <v>"</v>
       </c>
       <c r="F14" t="str">
-        <f>A14</f>
+        <f t="shared" si="2"/>
         <v>#LNG_Play</v>
       </c>
       <c r="G14" t="s">
@@ -1386,21 +1386,21 @@
         <v>3</v>
       </c>
       <c r="J14" t="str">
-        <f>B14</f>
+        <f t="shared" si="3"/>
         <v>Play</v>
       </c>
       <c r="K14" t="s">
         <v>6</v>
       </c>
       <c r="L14" t="str">
-        <f>C$1</f>
+        <f t="shared" si="4"/>
         <v>CZ</v>
       </c>
       <c r="M14" t="s">
         <v>3</v>
       </c>
       <c r="N14" t="str">
-        <f>C14</f>
+        <f t="shared" si="5"/>
         <v>Přehraj</v>
       </c>
       <c r="O14" t="s">
@@ -1409,24 +1409,24 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D15" t="str">
-        <f>E15&amp;F15&amp;G15&amp;H15&amp;I15&amp;J15&amp;K15&amp;L15&amp;M15&amp;N15&amp;O15</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">"#LNG_Settings": { "ENG" : "Settings", "CZ" : "Nastavení" }, </v>
       </c>
       <c r="E15" t="str">
-        <f>""""</f>
+        <f t="shared" si="1"/>
         <v>"</v>
       </c>
       <c r="F15" t="str">
-        <f>A15</f>
+        <f t="shared" si="2"/>
         <v>#LNG_Settings</v>
       </c>
       <c r="G15" t="s">
@@ -1439,21 +1439,21 @@
         <v>3</v>
       </c>
       <c r="J15" t="str">
-        <f>B15</f>
+        <f t="shared" si="3"/>
         <v>Settings</v>
       </c>
       <c r="K15" t="s">
         <v>6</v>
       </c>
       <c r="L15" t="str">
-        <f>C$1</f>
+        <f t="shared" si="4"/>
         <v>CZ</v>
       </c>
       <c r="M15" t="s">
         <v>3</v>
       </c>
       <c r="N15" t="str">
-        <f>C15</f>
+        <f t="shared" si="5"/>
         <v>Nastavení</v>
       </c>
       <c r="O15" t="s">
@@ -1462,24 +1462,24 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
       <c r="D16" t="str">
-        <f>E16&amp;F16&amp;G16&amp;H16&amp;I16&amp;J16&amp;K16&amp;L16&amp;M16&amp;N16&amp;O16</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">"#LNG_SoundControls": { "ENG" : "Sound Controls", "CZ" : "Ovladače zvuku" }, </v>
       </c>
       <c r="E16" t="str">
-        <f>""""</f>
+        <f t="shared" si="1"/>
         <v>"</v>
       </c>
       <c r="F16" t="str">
-        <f>A16</f>
+        <f t="shared" si="2"/>
         <v>#LNG_SoundControls</v>
       </c>
       <c r="G16" t="s">
@@ -1492,21 +1492,21 @@
         <v>3</v>
       </c>
       <c r="J16" t="str">
-        <f>B16</f>
+        <f t="shared" si="3"/>
         <v>Sound Controls</v>
       </c>
       <c r="K16" t="s">
         <v>6</v>
       </c>
       <c r="L16" t="str">
-        <f>C$1</f>
+        <f t="shared" si="4"/>
         <v>CZ</v>
       </c>
       <c r="M16" t="s">
         <v>3</v>
       </c>
       <c r="N16" t="str">
-        <f>C16</f>
+        <f t="shared" si="5"/>
         <v>Ovladače zvuku</v>
       </c>
       <c r="O16" t="s">
@@ -1524,15 +1524,15 @@
         <v>11</v>
       </c>
       <c r="D17" t="str">
-        <f>E17&amp;F17&amp;G17&amp;H17&amp;I17&amp;J17&amp;K17&amp;L17&amp;M17&amp;N17&amp;O17</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">"#LNG_Stop": { "ENG" : "Stop", "CZ" : "Stop" }, </v>
       </c>
       <c r="E17" t="str">
-        <f>""""</f>
+        <f t="shared" si="1"/>
         <v>"</v>
       </c>
       <c r="F17" t="str">
-        <f>A17</f>
+        <f t="shared" si="2"/>
         <v>#LNG_Stop</v>
       </c>
       <c r="G17" t="s">
@@ -1545,21 +1545,21 @@
         <v>3</v>
       </c>
       <c r="J17" t="str">
-        <f>B17</f>
+        <f t="shared" si="3"/>
         <v>Stop</v>
       </c>
       <c r="K17" t="s">
         <v>6</v>
       </c>
       <c r="L17" t="str">
-        <f>C$1</f>
+        <f t="shared" si="4"/>
         <v>CZ</v>
       </c>
       <c r="M17" t="s">
         <v>3</v>
       </c>
       <c r="N17" t="str">
-        <f>C17</f>
+        <f t="shared" si="5"/>
         <v>Stop</v>
       </c>
       <c r="O17" t="s">
@@ -1571,21 +1571,21 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D18" t="str">
-        <f>E18&amp;F18&amp;G18&amp;H18&amp;I18&amp;J18&amp;K18&amp;L18&amp;M18&amp;N18&amp;O18</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">"#LNG_Title": { "ENG" : "Braille to Braille-Morse Translator", "CZ" : "Překladač do braillské morzeovky" }, </v>
       </c>
       <c r="E18" t="str">
-        <f>""""</f>
+        <f t="shared" si="1"/>
         <v>"</v>
       </c>
       <c r="F18" t="str">
-        <f>A18</f>
+        <f t="shared" si="2"/>
         <v>#LNG_Title</v>
       </c>
       <c r="G18" t="s">
@@ -1598,21 +1598,21 @@
         <v>3</v>
       </c>
       <c r="J18" t="str">
-        <f>B18</f>
+        <f t="shared" si="3"/>
         <v>Braille to Braille-Morse Translator</v>
       </c>
       <c r="K18" t="s">
         <v>6</v>
       </c>
       <c r="L18" t="str">
-        <f>C$1</f>
+        <f t="shared" si="4"/>
         <v>CZ</v>
       </c>
       <c r="M18" t="s">
         <v>3</v>
       </c>
       <c r="N18" t="str">
-        <f>C18</f>
+        <f t="shared" si="5"/>
         <v>Překladač do braillské morzeovky</v>
       </c>
       <c r="O18" t="s">
@@ -1621,24 +1621,24 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D19" t="str">
-        <f>E19&amp;F19&amp;G19&amp;H19&amp;I19&amp;J19&amp;K19&amp;L19&amp;M19&amp;N19&amp;O19</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">"#LNG_ToggleSettings": { "ENG" : "Show/hide settings", "CZ" : "Zobrazí/schová nastavení" }, </v>
       </c>
       <c r="E19" t="str">
-        <f>""""</f>
+        <f t="shared" si="1"/>
         <v>"</v>
       </c>
       <c r="F19" t="str">
-        <f>A19</f>
+        <f t="shared" si="2"/>
         <v>#LNG_ToggleSettings</v>
       </c>
       <c r="G19" t="s">
@@ -1651,21 +1651,21 @@
         <v>3</v>
       </c>
       <c r="J19" t="str">
-        <f>B19</f>
+        <f t="shared" si="3"/>
         <v>Show/hide settings</v>
       </c>
       <c r="K19" t="s">
         <v>6</v>
       </c>
       <c r="L19" t="str">
-        <f>C$1</f>
+        <f t="shared" si="4"/>
         <v>CZ</v>
       </c>
       <c r="M19" t="s">
         <v>3</v>
       </c>
       <c r="N19" t="str">
-        <f>C19</f>
+        <f t="shared" si="5"/>
         <v>Zobrazí/schová nastavení</v>
       </c>
       <c r="O19" t="s">
@@ -1677,21 +1677,21 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D20" t="str">
-        <f>E20&amp;F20&amp;G20&amp;H20&amp;I20&amp;J20&amp;K20&amp;L20&amp;M20&amp;N20&amp;O20</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">"#LNG_ToggleSoundControls": { "ENG" : "Show / hide sound controls", "CZ" : "Zobrazí / schová ovládače zvuku" }, </v>
       </c>
       <c r="E20" t="str">
-        <f>""""</f>
+        <f t="shared" si="1"/>
         <v>"</v>
       </c>
       <c r="F20" t="str">
-        <f>A20</f>
+        <f t="shared" si="2"/>
         <v>#LNG_ToggleSoundControls</v>
       </c>
       <c r="G20" t="s">
@@ -1704,21 +1704,21 @@
         <v>3</v>
       </c>
       <c r="J20" t="str">
-        <f>B20</f>
+        <f t="shared" si="3"/>
         <v>Show / hide sound controls</v>
       </c>
       <c r="K20" t="s">
         <v>6</v>
       </c>
       <c r="L20" t="str">
-        <f>C$1</f>
+        <f t="shared" si="4"/>
         <v>CZ</v>
       </c>
       <c r="M20" t="s">
         <v>3</v>
       </c>
       <c r="N20" t="str">
-        <f>C20</f>
+        <f t="shared" si="5"/>
         <v>Zobrazí / schová ovládače zvuku</v>
       </c>
       <c r="O20" t="s">
@@ -1730,21 +1730,21 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D21" t="str">
-        <f>E21&amp;F21&amp;G21&amp;H21&amp;I21&amp;J21&amp;K21&amp;L21&amp;M21&amp;N21&amp;O21</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">"#LNG_ToggleVisualTranslation": { "ENG" : "Show / hide visual Braille Translation", "CZ" : "Zobrazí / schová braillský překlad" }, </v>
       </c>
       <c r="E21" t="str">
-        <f>""""</f>
+        <f t="shared" si="1"/>
         <v>"</v>
       </c>
       <c r="F21" t="str">
-        <f>A21</f>
+        <f t="shared" si="2"/>
         <v>#LNG_ToggleVisualTranslation</v>
       </c>
       <c r="G21" t="s">
@@ -1757,21 +1757,21 @@
         <v>3</v>
       </c>
       <c r="J21" t="str">
-        <f>B21</f>
+        <f t="shared" si="3"/>
         <v>Show / hide visual Braille Translation</v>
       </c>
       <c r="K21" t="s">
         <v>6</v>
       </c>
       <c r="L21" t="str">
-        <f>C$1</f>
+        <f t="shared" si="4"/>
         <v>CZ</v>
       </c>
       <c r="M21" t="s">
         <v>3</v>
       </c>
       <c r="N21" t="str">
-        <f>C21</f>
+        <f t="shared" si="5"/>
         <v>Zobrazí / schová braillský překlad</v>
       </c>
       <c r="O21" t="s">
@@ -1789,15 +1789,15 @@
         <v>27</v>
       </c>
       <c r="D22" t="str">
-        <f>E22&amp;F22&amp;G22&amp;H22&amp;I22&amp;J22&amp;K22&amp;L22&amp;M22&amp;N22&amp;O22</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">"#LNG_YourMessage": { "ENG" : "Your message", "CZ" : "Vaše zpráva" }, </v>
       </c>
       <c r="E22" t="str">
-        <f>""""</f>
+        <f t="shared" si="1"/>
         <v>"</v>
       </c>
       <c r="F22" t="str">
-        <f>A22</f>
+        <f t="shared" si="2"/>
         <v>#LNG_YourMessage</v>
       </c>
       <c r="G22" t="s">
@@ -1810,21 +1810,21 @@
         <v>3</v>
       </c>
       <c r="J22" t="str">
-        <f>B22</f>
+        <f t="shared" si="3"/>
         <v>Your message</v>
       </c>
       <c r="K22" t="s">
         <v>6</v>
       </c>
       <c r="L22" t="str">
-        <f>C$1</f>
+        <f t="shared" si="4"/>
         <v>CZ</v>
       </c>
       <c r="M22" t="s">
         <v>3</v>
       </c>
       <c r="N22" t="str">
-        <f>C22</f>
+        <f t="shared" si="5"/>
         <v>Vaše zpráva</v>
       </c>
       <c r="O22" t="s">
@@ -1842,15 +1842,15 @@
         <v>32</v>
       </c>
       <c r="D23" t="str">
-        <f>E23&amp;F23&amp;G23&amp;H23&amp;I23&amp;J23&amp;K23&amp;L23&amp;M23&amp;N23&amp;O23</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">"#LNG_ZoomIn": { "ENG" : "Zoom in", "CZ" : "Přiblížit" }, </v>
       </c>
       <c r="E23" t="str">
-        <f>""""</f>
+        <f t="shared" si="1"/>
         <v>"</v>
       </c>
       <c r="F23" t="str">
-        <f>A23</f>
+        <f t="shared" si="2"/>
         <v>#LNG_ZoomIn</v>
       </c>
       <c r="G23" t="s">
@@ -1863,21 +1863,21 @@
         <v>3</v>
       </c>
       <c r="J23" t="str">
-        <f>B23</f>
+        <f t="shared" si="3"/>
         <v>Zoom in</v>
       </c>
       <c r="K23" t="s">
         <v>6</v>
       </c>
       <c r="L23" t="str">
-        <f>C$1</f>
+        <f t="shared" si="4"/>
         <v>CZ</v>
       </c>
       <c r="M23" t="s">
         <v>3</v>
       </c>
       <c r="N23" t="str">
-        <f>C23</f>
+        <f t="shared" si="5"/>
         <v>Přiblížit</v>
       </c>
       <c r="O23" t="s">
@@ -1895,15 +1895,15 @@
         <v>33</v>
       </c>
       <c r="D24" t="str">
-        <f>E24&amp;F24&amp;G24&amp;H24&amp;I24&amp;J24&amp;K24&amp;L24&amp;M24&amp;N24&amp;O24</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">"#LNG_ZoonOut": { "ENG" : "Zoom out", "CZ" : "Oddálit" }, </v>
       </c>
       <c r="E24" t="str">
-        <f>""""</f>
+        <f t="shared" si="1"/>
         <v>"</v>
       </c>
       <c r="F24" t="str">
-        <f>A24</f>
+        <f t="shared" si="2"/>
         <v>#LNG_ZoonOut</v>
       </c>
       <c r="G24" t="s">
@@ -1916,21 +1916,21 @@
         <v>3</v>
       </c>
       <c r="J24" t="str">
-        <f>B24</f>
+        <f t="shared" si="3"/>
         <v>Zoom out</v>
       </c>
       <c r="K24" t="s">
         <v>6</v>
       </c>
       <c r="L24" t="str">
-        <f>C$1</f>
+        <f t="shared" si="4"/>
         <v>CZ</v>
       </c>
       <c r="M24" t="s">
         <v>3</v>
       </c>
       <c r="N24" t="str">
-        <f>C24</f>
+        <f t="shared" si="5"/>
         <v>Oddálit</v>
       </c>
       <c r="O24" t="s">

--- a/brailleToSoundApp/brailleToSoundApp/languages.xlsx
+++ b/brailleToSoundApp/brailleToSoundApp/languages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GIT\michalJanaGitHub.github.io\brailleToSoundApp\brailleToSoundApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4C70F3-168B-4B97-9BB1-DADBA638ED0F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485A4BA5-A6E9-499F-ACCE-CD18C0152A56}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0FE4A93E-040C-454E-9FBD-34DA46F8D78F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="88">
   <si>
     <t>ENG</t>
   </si>
@@ -286,6 +286,15 @@
   </si>
   <si>
     <t>Zvuk prázdné tečky</t>
+  </si>
+  <si>
+    <t>#LNG_ChangeLanguageToCzech</t>
+  </si>
+  <si>
+    <t>Zobraz v češtině</t>
+  </si>
+  <si>
+    <t>Display in English</t>
   </si>
 </sst>
 </file>
@@ -647,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0CCAA8-9771-4C1E-AC50-91799C515696}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,15 +738,15 @@
         <v>64</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D24" si="0">E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2&amp;K2&amp;L2&amp;M2&amp;N2&amp;O2</f>
+        <f>E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2&amp;K2&amp;L2&amp;M2&amp;N2&amp;O2</f>
         <v xml:space="preserve">"#LNG_BrailleTranslation": { "ENG" : "Braille translation", "CZ" : "Braillský překlad" }, </v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E24" si="1">""""</f>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F24" si="2">A2</f>
+        <f>A2</f>
         <v>#LNG_BrailleTranslation</v>
       </c>
       <c r="G2" t="s">
@@ -750,21 +759,21 @@
         <v>3</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J24" si="3">B2</f>
+        <f>B2</f>
         <v>Braille translation</v>
       </c>
       <c r="K2" t="s">
         <v>6</v>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:L24" si="4">C$1</f>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M2" t="s">
         <v>3</v>
       </c>
       <c r="N2" t="str">
-        <f t="shared" ref="N2:N24" si="5">C2</f>
+        <f>C2</f>
         <v>Braillský překlad</v>
       </c>
       <c r="O2" t="s">
@@ -782,15 +791,15 @@
         <v>51</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="0"/>
+        <f>E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;O3</f>
         <v xml:space="preserve">"#LNG_Change_Imperative": { "ENG" : "Change", "CZ" : "Změň" }, </v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" si="2"/>
+        <f>A3</f>
         <v>#LNG_Change_Imperative</v>
       </c>
       <c r="G3" t="s">
@@ -803,21 +812,21 @@
         <v>3</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" si="3"/>
+        <f>B3</f>
         <v>Change</v>
       </c>
       <c r="K3" t="s">
         <v>6</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" si="4"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M3" t="s">
         <v>3</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" si="5"/>
+        <f>C3</f>
         <v>Změň</v>
       </c>
       <c r="O3" t="s">
@@ -826,25 +835,25 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">"#LNG_Choice": { "ENG" : "CZ", "CZ" : "ENG" }, </v>
+        <f>E4&amp;F4&amp;G4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4&amp;N4&amp;O4</f>
+        <v xml:space="preserve">"#LNG_ChangeLanguageToCzech": { "ENG" : "Zobraz v češtině", "CZ" : "Display in English" }, </v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="2"/>
-        <v>#LNG_Choice</v>
+        <f>A4</f>
+        <v>#LNG_ChangeLanguageToCzech</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -856,22 +865,22 @@
         <v>3</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="3"/>
-        <v>CZ</v>
+        <f>B4</f>
+        <v>Zobraz v češtině</v>
       </c>
       <c r="K4" t="s">
         <v>6</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="4"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M4" t="s">
         <v>3</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" si="5"/>
-        <v>ENG</v>
+        <f>C4</f>
+        <v>Display in English</v>
       </c>
       <c r="O4" t="s">
         <v>4</v>
@@ -879,25 +888,25 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">"#LNG_DelayBetweenCharacters": { "ENG" : "Delay between characters", "CZ" : "Prodleva mezi písmeny" }, </v>
+        <f>E5&amp;F5&amp;G5&amp;H5&amp;I5&amp;J5&amp;K5&amp;L5&amp;M5&amp;N5&amp;O5</f>
+        <v xml:space="preserve">"#LNG_Choice": { "ENG" : "CZ", "CZ" : "ENG" }, </v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="2"/>
-        <v>#LNG_DelayBetweenCharacters</v>
+        <f>A5</f>
+        <v>#LNG_Choice</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -909,22 +918,22 @@
         <v>3</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="3"/>
-        <v>Delay between characters</v>
+        <f>B5</f>
+        <v>CZ</v>
       </c>
       <c r="K5" t="s">
         <v>6</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="4"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M5" t="s">
         <v>3</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" si="5"/>
-        <v>Prodleva mezi písmeny</v>
+        <f>C5</f>
+        <v>ENG</v>
       </c>
       <c r="O5" t="s">
         <v>4</v>
@@ -932,25 +941,25 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">"#LNG_DelayBetweenSounds": { "ENG" : "Delay between sounds", "CZ" : "Prodleva mezi zvuky" }, </v>
+        <f>E6&amp;F6&amp;G6&amp;H6&amp;I6&amp;J6&amp;K6&amp;L6&amp;M6&amp;N6&amp;O6</f>
+        <v xml:space="preserve">"#LNG_DelayBetweenCharacters": { "ENG" : "Delay between characters", "CZ" : "Prodleva mezi písmeny" }, </v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="2"/>
-        <v>#LNG_DelayBetweenSounds</v>
+        <f>A6</f>
+        <v>#LNG_DelayBetweenCharacters</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -962,22 +971,22 @@
         <v>3</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="3"/>
-        <v>Delay between sounds</v>
+        <f>B6</f>
+        <v>Delay between characters</v>
       </c>
       <c r="K6" t="s">
         <v>6</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="4"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M6" t="s">
         <v>3</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="5"/>
-        <v>Prodleva mezi zvuky</v>
+        <f>C6</f>
+        <v>Prodleva mezi písmeny</v>
       </c>
       <c r="O6" t="s">
         <v>4</v>
@@ -985,25 +994,25 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">"#LNG_DelayBetweenTriples": { "ENG" : "Delay between triples", "CZ" : "Prodleva mezi trojicemi" }, </v>
+        <f>E7&amp;F7&amp;G7&amp;H7&amp;I7&amp;J7&amp;K7&amp;L7&amp;M7&amp;N7&amp;O7</f>
+        <v xml:space="preserve">"#LNG_DelayBetweenSounds": { "ENG" : "Delay between sounds", "CZ" : "Prodleva mezi zvuky" }, </v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="2"/>
-        <v>#LNG_DelayBetweenTriples</v>
+        <f>A7</f>
+        <v>#LNG_DelayBetweenSounds</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -1015,22 +1024,22 @@
         <v>3</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="3"/>
-        <v>Delay between triples</v>
+        <f>B7</f>
+        <v>Delay between sounds</v>
       </c>
       <c r="K7" t="s">
         <v>6</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="4"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M7" t="s">
         <v>3</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="5"/>
-        <v>Prodleva mezi trojicemi</v>
+        <f>C7</f>
+        <v>Prodleva mezi zvuky</v>
       </c>
       <c r="O7" t="s">
         <v>4</v>
@@ -1038,25 +1047,25 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">"#LNG_DelayBetweenWords": { "ENG" : "Delay between words", "CZ" : "Prodleva mezi slovy" }, </v>
+        <f>E8&amp;F8&amp;G8&amp;H8&amp;I8&amp;J8&amp;K8&amp;L8&amp;M8&amp;N8&amp;O8</f>
+        <v xml:space="preserve">"#LNG_DelayBetweenTriples": { "ENG" : "Delay between triples", "CZ" : "Prodleva mezi trojicemi" }, </v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="2"/>
-        <v>#LNG_DelayBetweenWords</v>
+        <f>A8</f>
+        <v>#LNG_DelayBetweenTriples</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -1068,22 +1077,22 @@
         <v>3</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="3"/>
-        <v>Delay between words</v>
+        <f>B8</f>
+        <v>Delay between triples</v>
       </c>
       <c r="K8" t="s">
         <v>6</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="4"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M8" t="s">
         <v>3</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="5"/>
-        <v>Prodleva mezi slovy</v>
+        <f>C8</f>
+        <v>Prodleva mezi trojicemi</v>
       </c>
       <c r="O8" t="s">
         <v>4</v>
@@ -1091,25 +1100,25 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">"#LNG_Description": { "ENG" : "Appp translates text plays it out in Braille Morse", "CZ" : "Aplikace přeloží text a přehraje v Braillské morzeovce" }, </v>
+        <f>E9&amp;F9&amp;G9&amp;H9&amp;I9&amp;J9&amp;K9&amp;L9&amp;M9&amp;N9&amp;O9</f>
+        <v xml:space="preserve">"#LNG_DelayBetweenWords": { "ENG" : "Delay between words", "CZ" : "Prodleva mezi slovy" }, </v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="2"/>
-        <v>#LNG_Description</v>
+        <f>A9</f>
+        <v>#LNG_DelayBetweenWords</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
@@ -1121,22 +1130,22 @@
         <v>3</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="3"/>
-        <v>Appp translates text plays it out in Braille Morse</v>
+        <f>B9</f>
+        <v>Delay between words</v>
       </c>
       <c r="K9" t="s">
         <v>6</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="4"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M9" t="s">
         <v>3</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="5"/>
-        <v>Aplikace přeloží text a přehraje v Braillské morzeovce</v>
+        <f>C9</f>
+        <v>Prodleva mezi slovy</v>
       </c>
       <c r="O9" t="s">
         <v>4</v>
@@ -1144,25 +1153,25 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">"#LNG_DotSound": { "ENG" : "Dot Sound", "CZ" : "Zvuk tečky" }, </v>
+        <f>E10&amp;F10&amp;G10&amp;H10&amp;I10&amp;J10&amp;K10&amp;L10&amp;M10&amp;N10&amp;O10</f>
+        <v xml:space="preserve">"#LNG_Description": { "ENG" : "Appp translates text plays it out in Braille Morse", "CZ" : "Aplikace přeloží text a přehraje v Braillské morzeovce" }, </v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="2"/>
-        <v>#LNG_DotSound</v>
+        <f>A10</f>
+        <v>#LNG_Description</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -1174,22 +1183,22 @@
         <v>3</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="3"/>
-        <v>Dot Sound</v>
+        <f>B10</f>
+        <v>Appp translates text plays it out in Braille Morse</v>
       </c>
       <c r="K10" t="s">
         <v>6</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="4"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M10" t="s">
         <v>3</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="5"/>
-        <v>Zvuk tečky</v>
+        <f>C10</f>
+        <v>Aplikace přeloží text a přehraje v Braillské morzeovce</v>
       </c>
       <c r="O10" t="s">
         <v>4</v>
@@ -1197,25 +1206,25 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">"#LNG_EnterSomeText": { "ENG" : "Enter some text to translate and play in Braille Morse", "CZ" : "Zadejte text pro překlad a přehrání v Braillské morzeovce" }, </v>
+        <f>E11&amp;F11&amp;G11&amp;H11&amp;I11&amp;J11&amp;K11&amp;L11&amp;M11&amp;N11&amp;O11</f>
+        <v xml:space="preserve">"#LNG_DotSound": { "ENG" : "Dot Sound", "CZ" : "Zvuk tečky" }, </v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="2"/>
-        <v>#LNG_EnterSomeText</v>
+        <f>A11</f>
+        <v>#LNG_DotSound</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -1227,22 +1236,22 @@
         <v>3</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="3"/>
-        <v>Enter some text to translate and play in Braille Morse</v>
+        <f>B11</f>
+        <v>Dot Sound</v>
       </c>
       <c r="K11" t="s">
         <v>6</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="4"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M11" t="s">
         <v>3</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="5"/>
-        <v>Zadejte text pro překlad a přehrání v Braillské morzeovce</v>
+        <f>C11</f>
+        <v>Zvuk tečky</v>
       </c>
       <c r="O11" t="s">
         <v>4</v>
@@ -1259,15 +1268,15 @@
         <v>84</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f>E12&amp;F12&amp;G12&amp;H12&amp;I12&amp;J12&amp;K12&amp;L12&amp;M12&amp;N12&amp;O12</f>
         <v xml:space="preserve">"#LNG_EmptyDotSound": { "ENG" : "Empty Dot Sound", "CZ" : "Zvuk prázdné tečky" }, </v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="2"/>
+        <f>A12</f>
         <v>#LNG_EmptyDotSound</v>
       </c>
       <c r="G12" t="s">
@@ -1280,21 +1289,21 @@
         <v>3</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="3"/>
+        <f>B12</f>
         <v>Empty Dot Sound</v>
       </c>
       <c r="K12" t="s">
         <v>6</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="4"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M12" t="s">
         <v>3</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="5"/>
+        <f>C12</f>
         <v>Zvuk prázdné tečky</v>
       </c>
       <c r="O12" t="s">
@@ -1303,25 +1312,25 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">"#LNG_Pause": { "ENG" : "Pause", "CZ" : "Pauza" }, </v>
+        <f>E13&amp;F13&amp;G13&amp;H13&amp;I13&amp;J13&amp;K13&amp;L13&amp;M13&amp;N13&amp;O13</f>
+        <v xml:space="preserve">"#LNG_EnterSomeText": { "ENG" : "Enter some text to translate and play in Braille Morse", "CZ" : "Zadejte text pro překlad a přehrání v Braillské morzeovce" }, </v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="2"/>
-        <v>#LNG_Pause</v>
+        <f>A13</f>
+        <v>#LNG_EnterSomeText</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
@@ -1333,22 +1342,22 @@
         <v>3</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="3"/>
-        <v>Pause</v>
+        <f>B13</f>
+        <v>Enter some text to translate and play in Braille Morse</v>
       </c>
       <c r="K13" t="s">
         <v>6</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="4"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M13" t="s">
         <v>3</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="5"/>
-        <v>Pauza</v>
+        <f>C13</f>
+        <v>Zadejte text pro překlad a přehrání v Braillské morzeovce</v>
       </c>
       <c r="O13" t="s">
         <v>4</v>
@@ -1356,25 +1365,25 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">"#LNG_Play": { "ENG" : "Play", "CZ" : "Přehraj" }, </v>
+        <f>E14&amp;F14&amp;G14&amp;H14&amp;I14&amp;J14&amp;K14&amp;L14&amp;M14&amp;N14&amp;O14</f>
+        <v xml:space="preserve">"#LNG_Pause": { "ENG" : "Pause", "CZ" : "Pauza" }, </v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="2"/>
-        <v>#LNG_Play</v>
+        <f>A14</f>
+        <v>#LNG_Pause</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -1386,22 +1395,22 @@
         <v>3</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="3"/>
-        <v>Play</v>
+        <f>B14</f>
+        <v>Pause</v>
       </c>
       <c r="K14" t="s">
         <v>6</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="4"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M14" t="s">
         <v>3</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="5"/>
-        <v>Přehraj</v>
+        <f>C14</f>
+        <v>Pauza</v>
       </c>
       <c r="O14" t="s">
         <v>4</v>
@@ -1409,25 +1418,25 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">"#LNG_Settings": { "ENG" : "Settings", "CZ" : "Nastavení" }, </v>
+        <f>E15&amp;F15&amp;G15&amp;H15&amp;I15&amp;J15&amp;K15&amp;L15&amp;M15&amp;N15&amp;O15</f>
+        <v xml:space="preserve">"#LNG_Play": { "ENG" : "Play", "CZ" : "Přehraj" }, </v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="2"/>
-        <v>#LNG_Settings</v>
+        <f>A15</f>
+        <v>#LNG_Play</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
@@ -1439,22 +1448,22 @@
         <v>3</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="3"/>
-        <v>Settings</v>
+        <f>B15</f>
+        <v>Play</v>
       </c>
       <c r="K15" t="s">
         <v>6</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="4"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M15" t="s">
         <v>3</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="5"/>
-        <v>Nastavení</v>
+        <f>C15</f>
+        <v>Přehraj</v>
       </c>
       <c r="O15" t="s">
         <v>4</v>
@@ -1462,25 +1471,25 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">"#LNG_SoundControls": { "ENG" : "Sound Controls", "CZ" : "Ovladače zvuku" }, </v>
+        <f>E16&amp;F16&amp;G16&amp;H16&amp;I16&amp;J16&amp;K16&amp;L16&amp;M16&amp;N16&amp;O16</f>
+        <v xml:space="preserve">"#LNG_Settings": { "ENG" : "Settings", "CZ" : "Nastavení" }, </v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="2"/>
-        <v>#LNG_SoundControls</v>
+        <f>A16</f>
+        <v>#LNG_Settings</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -1492,22 +1501,22 @@
         <v>3</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="3"/>
-        <v>Sound Controls</v>
+        <f>B16</f>
+        <v>Settings</v>
       </c>
       <c r="K16" t="s">
         <v>6</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="4"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M16" t="s">
         <v>3</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="5"/>
-        <v>Ovladače zvuku</v>
+        <f>C16</f>
+        <v>Nastavení</v>
       </c>
       <c r="O16" t="s">
         <v>4</v>
@@ -1515,25 +1524,25 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">"#LNG_Stop": { "ENG" : "Stop", "CZ" : "Stop" }, </v>
+        <f>E17&amp;F17&amp;G17&amp;H17&amp;I17&amp;J17&amp;K17&amp;L17&amp;M17&amp;N17&amp;O17</f>
+        <v xml:space="preserve">"#LNG_SoundControls": { "ENG" : "Sound Controls", "CZ" : "Ovladače zvuku" }, </v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="2"/>
-        <v>#LNG_Stop</v>
+        <f>A17</f>
+        <v>#LNG_SoundControls</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
@@ -1545,22 +1554,22 @@
         <v>3</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="3"/>
-        <v>Stop</v>
+        <f>B17</f>
+        <v>Sound Controls</v>
       </c>
       <c r="K17" t="s">
         <v>6</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="4"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M17" t="s">
         <v>3</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="5"/>
-        <v>Stop</v>
+        <f>C17</f>
+        <v>Ovladače zvuku</v>
       </c>
       <c r="O17" t="s">
         <v>4</v>
@@ -1568,25 +1577,25 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">"#LNG_Title": { "ENG" : "Braille to Braille-Morse Translator", "CZ" : "Překladač do braillské morzeovky" }, </v>
+        <f>E18&amp;F18&amp;G18&amp;H18&amp;I18&amp;J18&amp;K18&amp;L18&amp;M18&amp;N18&amp;O18</f>
+        <v xml:space="preserve">"#LNG_Stop": { "ENG" : "Stop", "CZ" : "Stop" }, </v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="2"/>
-        <v>#LNG_Title</v>
+        <f>A18</f>
+        <v>#LNG_Stop</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
@@ -1598,22 +1607,22 @@
         <v>3</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="3"/>
-        <v>Braille to Braille-Morse Translator</v>
+        <f>B18</f>
+        <v>Stop</v>
       </c>
       <c r="K18" t="s">
         <v>6</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="4"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M18" t="s">
         <v>3</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="5"/>
-        <v>Překladač do braillské morzeovky</v>
+        <f>C18</f>
+        <v>Stop</v>
       </c>
       <c r="O18" t="s">
         <v>4</v>
@@ -1621,25 +1630,25 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">"#LNG_ToggleSettings": { "ENG" : "Show/hide settings", "CZ" : "Zobrazí/schová nastavení" }, </v>
+        <f>E19&amp;F19&amp;G19&amp;H19&amp;I19&amp;J19&amp;K19&amp;L19&amp;M19&amp;N19&amp;O19</f>
+        <v xml:space="preserve">"#LNG_Title": { "ENG" : "Braille to Braille-Morse Translator", "CZ" : "Překladač do braillské morzeovky" }, </v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="2"/>
-        <v>#LNG_ToggleSettings</v>
+        <f>A19</f>
+        <v>#LNG_Title</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
@@ -1651,22 +1660,22 @@
         <v>3</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="3"/>
-        <v>Show/hide settings</v>
+        <f>B19</f>
+        <v>Braille to Braille-Morse Translator</v>
       </c>
       <c r="K19" t="s">
         <v>6</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="4"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M19" t="s">
         <v>3</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="5"/>
-        <v>Zobrazí/schová nastavení</v>
+        <f>C19</f>
+        <v>Překladač do braillské morzeovky</v>
       </c>
       <c r="O19" t="s">
         <v>4</v>
@@ -1674,25 +1683,25 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">"#LNG_ToggleSoundControls": { "ENG" : "Show / hide sound controls", "CZ" : "Zobrazí / schová ovládače zvuku" }, </v>
+        <f>E20&amp;F20&amp;G20&amp;H20&amp;I20&amp;J20&amp;K20&amp;L20&amp;M20&amp;N20&amp;O20</f>
+        <v xml:space="preserve">"#LNG_ToggleSettings": { "ENG" : "Show/hide settings", "CZ" : "Zobrazí/schová nastavení" }, </v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="2"/>
-        <v>#LNG_ToggleSoundControls</v>
+        <f>A20</f>
+        <v>#LNG_ToggleSettings</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
@@ -1704,22 +1713,22 @@
         <v>3</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="3"/>
-        <v>Show / hide sound controls</v>
+        <f>B20</f>
+        <v>Show/hide settings</v>
       </c>
       <c r="K20" t="s">
         <v>6</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="4"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M20" t="s">
         <v>3</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="5"/>
-        <v>Zobrazí / schová ovládače zvuku</v>
+        <f>C20</f>
+        <v>Zobrazí/schová nastavení</v>
       </c>
       <c r="O20" t="s">
         <v>4</v>
@@ -1727,25 +1736,25 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">"#LNG_ToggleVisualTranslation": { "ENG" : "Show / hide visual Braille Translation", "CZ" : "Zobrazí / schová braillský překlad" }, </v>
+        <f>E21&amp;F21&amp;G21&amp;H21&amp;I21&amp;J21&amp;K21&amp;L21&amp;M21&amp;N21&amp;O21</f>
+        <v xml:space="preserve">"#LNG_ToggleSoundControls": { "ENG" : "Show / hide sound controls", "CZ" : "Zobrazí / schová ovládače zvuku" }, </v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="2"/>
-        <v>#LNG_ToggleVisualTranslation</v>
+        <f>A21</f>
+        <v>#LNG_ToggleSoundControls</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
@@ -1757,22 +1766,22 @@
         <v>3</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="3"/>
-        <v>Show / hide visual Braille Translation</v>
+        <f>B21</f>
+        <v>Show / hide sound controls</v>
       </c>
       <c r="K21" t="s">
         <v>6</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="4"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M21" t="s">
         <v>3</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="5"/>
-        <v>Zobrazí / schová braillský překlad</v>
+        <f>C21</f>
+        <v>Zobrazí / schová ovládače zvuku</v>
       </c>
       <c r="O21" t="s">
         <v>4</v>
@@ -1780,25 +1789,25 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">"#LNG_YourMessage": { "ENG" : "Your message", "CZ" : "Vaše zpráva" }, </v>
+        <f>E22&amp;F22&amp;G22&amp;H22&amp;I22&amp;J22&amp;K22&amp;L22&amp;M22&amp;N22&amp;O22</f>
+        <v xml:space="preserve">"#LNG_ToggleVisualTranslation": { "ENG" : "Show / hide visual Braille Translation", "CZ" : "Zobrazí / schová braillský překlad" }, </v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="2"/>
-        <v>#LNG_YourMessage</v>
+        <f>A22</f>
+        <v>#LNG_ToggleVisualTranslation</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
@@ -1810,22 +1819,22 @@
         <v>3</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="3"/>
-        <v>Your message</v>
+        <f>B22</f>
+        <v>Show / hide visual Braille Translation</v>
       </c>
       <c r="K22" t="s">
         <v>6</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="4"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M22" t="s">
         <v>3</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="5"/>
-        <v>Vaše zpráva</v>
+        <f>C22</f>
+        <v>Zobrazí / schová braillský překlad</v>
       </c>
       <c r="O22" t="s">
         <v>4</v>
@@ -1833,25 +1842,25 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">"#LNG_ZoomIn": { "ENG" : "Zoom in", "CZ" : "Přiblížit" }, </v>
+        <f>E23&amp;F23&amp;G23&amp;H23&amp;I23&amp;J23&amp;K23&amp;L23&amp;M23&amp;N23&amp;O23</f>
+        <v xml:space="preserve">"#LNG_YourMessage": { "ENG" : "Your message", "CZ" : "Vaše zpráva" }, </v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="1"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="2"/>
-        <v>#LNG_ZoomIn</v>
+        <f>A23</f>
+        <v>#LNG_YourMessage</v>
       </c>
       <c r="G23" t="s">
         <v>5</v>
@@ -1863,22 +1872,22 @@
         <v>3</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="3"/>
-        <v>Zoom in</v>
+        <f>B23</f>
+        <v>Your message</v>
       </c>
       <c r="K23" t="s">
         <v>6</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="4"/>
+        <f>C$1</f>
         <v>CZ</v>
       </c>
       <c r="M23" t="s">
         <v>3</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="5"/>
-        <v>Přiblížit</v>
+        <f>C23</f>
+        <v>Vaše zpráva</v>
       </c>
       <c r="O23" t="s">
         <v>4</v>
@@ -1886,59 +1895,112 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="str">
+        <f>E24&amp;F24&amp;G24&amp;H24&amp;I24&amp;J24&amp;K24&amp;L24&amp;M24&amp;N24&amp;O24</f>
+        <v xml:space="preserve">"#LNG_ZoomIn": { "ENG" : "Zoom in", "CZ" : "Přiblížit" }, </v>
+      </c>
+      <c r="E24" t="str">
+        <f>""""</f>
+        <v>"</v>
+      </c>
+      <c r="F24" t="str">
+        <f>A24</f>
+        <v>#LNG_ZoomIn</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" t="str">
+        <f>B24</f>
+        <v>Zoom in</v>
+      </c>
+      <c r="K24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" t="str">
+        <f>C$1</f>
+        <v>CZ</v>
+      </c>
+      <c r="M24" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" t="str">
+        <f>C24</f>
+        <v>Přiblížit</v>
+      </c>
+      <c r="O24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>19</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
+      <c r="D25" t="str">
+        <f>E25&amp;F25&amp;G25&amp;H25&amp;I25&amp;J25&amp;K25&amp;L25&amp;M25&amp;N25&amp;O25</f>
         <v xml:space="preserve">"#LNG_ZoonOut": { "ENG" : "Zoom out", "CZ" : "Oddálit" }, </v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="2"/>
+      <c r="E25" t="str">
+        <f>""""</f>
+        <v>"</v>
+      </c>
+      <c r="F25" t="str">
+        <f>A25</f>
         <v>#LNG_ZoonOut</v>
       </c>
-      <c r="G24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="3"/>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" t="str">
+        <f>B25</f>
         <v>Zoom out</v>
       </c>
-      <c r="K24" t="s">
-        <v>6</v>
-      </c>
-      <c r="L24" t="str">
-        <f t="shared" si="4"/>
-        <v>CZ</v>
-      </c>
-      <c r="M24" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" t="str">
-        <f t="shared" si="5"/>
+      <c r="K25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" t="str">
+        <f>C$1</f>
+        <v>CZ</v>
+      </c>
+      <c r="M25" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" t="str">
+        <f>C25</f>
         <v>Oddálit</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O25" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O25">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/brailleToSoundApp/brailleToSoundApp/languages.xlsx
+++ b/brailleToSoundApp/brailleToSoundApp/languages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GIT\michalJanaGitHub.github.io\brailleToSoundApp\brailleToSoundApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485A4BA5-A6E9-499F-ACCE-CD18C0152A56}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BAC0B7-C64B-4A74-8BEC-C2E8E3CA7671}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0FE4A93E-040C-454E-9FBD-34DA46F8D78F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="94">
   <si>
     <t>ENG</t>
   </si>
@@ -295,6 +295,24 @@
   </si>
   <si>
     <t>Display in English</t>
+  </si>
+  <si>
+    <t>#LNG_DisplayInfoAboutProgram</t>
+  </si>
+  <si>
+    <t>#LNG_About</t>
+  </si>
+  <si>
+    <t>Show infor about program</t>
+  </si>
+  <si>
+    <t>Zobrazí informace o programu</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>O programu</t>
   </si>
 </sst>
 </file>
@@ -656,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0CCAA8-9771-4C1E-AC50-91799C515696}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,17 +747,17 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D2" t="str">
         <f>E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2&amp;K2&amp;L2&amp;M2&amp;N2&amp;O2</f>
-        <v xml:space="preserve">"#LNG_BrailleTranslation": { "ENG" : "Braille translation", "CZ" : "Braillský překlad" }, </v>
+        <v xml:space="preserve">"#LNG_About": { "ENG" : "About", "CZ" : "O programu" }, </v>
       </c>
       <c r="E2" t="str">
         <f>""""</f>
@@ -747,7 +765,7 @@
       </c>
       <c r="F2" t="str">
         <f>A2</f>
-        <v>#LNG_BrailleTranslation</v>
+        <v>#LNG_About</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -760,7 +778,7 @@
       </c>
       <c r="J2" t="str">
         <f>B2</f>
-        <v>Braille translation</v>
+        <v>About</v>
       </c>
       <c r="K2" t="s">
         <v>6</v>
@@ -774,7 +792,7 @@
       </c>
       <c r="N2" t="str">
         <f>C2</f>
-        <v>Braillský překlad</v>
+        <v>O programu</v>
       </c>
       <c r="O2" t="s">
         <v>4</v>
@@ -782,17 +800,17 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D3" t="str">
         <f>E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;O3</f>
-        <v xml:space="preserve">"#LNG_Change_Imperative": { "ENG" : "Change", "CZ" : "Změň" }, </v>
+        <v xml:space="preserve">"#LNG_BrailleTranslation": { "ENG" : "Braille translation", "CZ" : "Braillský překlad" }, </v>
       </c>
       <c r="E3" t="str">
         <f>""""</f>
@@ -800,7 +818,7 @@
       </c>
       <c r="F3" t="str">
         <f>A3</f>
-        <v>#LNG_Change_Imperative</v>
+        <v>#LNG_BrailleTranslation</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -813,7 +831,7 @@
       </c>
       <c r="J3" t="str">
         <f>B3</f>
-        <v>Change</v>
+        <v>Braille translation</v>
       </c>
       <c r="K3" t="s">
         <v>6</v>
@@ -827,7 +845,7 @@
       </c>
       <c r="N3" t="str">
         <f>C3</f>
-        <v>Změň</v>
+        <v>Braillský překlad</v>
       </c>
       <c r="O3" t="s">
         <v>4</v>
@@ -835,17 +853,17 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="D4" t="str">
         <f>E4&amp;F4&amp;G4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4&amp;N4&amp;O4</f>
-        <v xml:space="preserve">"#LNG_ChangeLanguageToCzech": { "ENG" : "Zobraz v češtině", "CZ" : "Display in English" }, </v>
+        <v xml:space="preserve">"#LNG_Change_Imperative": { "ENG" : "Change", "CZ" : "Změň" }, </v>
       </c>
       <c r="E4" t="str">
         <f>""""</f>
@@ -853,7 +871,7 @@
       </c>
       <c r="F4" t="str">
         <f>A4</f>
-        <v>#LNG_ChangeLanguageToCzech</v>
+        <v>#LNG_Change_Imperative</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -866,7 +884,7 @@
       </c>
       <c r="J4" t="str">
         <f>B4</f>
-        <v>Zobraz v češtině</v>
+        <v>Change</v>
       </c>
       <c r="K4" t="s">
         <v>6</v>
@@ -880,7 +898,7 @@
       </c>
       <c r="N4" t="str">
         <f>C4</f>
-        <v>Display in English</v>
+        <v>Změň</v>
       </c>
       <c r="O4" t="s">
         <v>4</v>
@@ -888,17 +906,17 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D5" t="str">
         <f>E5&amp;F5&amp;G5&amp;H5&amp;I5&amp;J5&amp;K5&amp;L5&amp;M5&amp;N5&amp;O5</f>
-        <v xml:space="preserve">"#LNG_Choice": { "ENG" : "CZ", "CZ" : "ENG" }, </v>
+        <v xml:space="preserve">"#LNG_ChangeLanguageToCzech": { "ENG" : "Zobraz v češtině", "CZ" : "Display in English" }, </v>
       </c>
       <c r="E5" t="str">
         <f>""""</f>
@@ -906,7 +924,7 @@
       </c>
       <c r="F5" t="str">
         <f>A5</f>
-        <v>#LNG_Choice</v>
+        <v>#LNG_ChangeLanguageToCzech</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -919,7 +937,7 @@
       </c>
       <c r="J5" t="str">
         <f>B5</f>
-        <v>CZ</v>
+        <v>Zobraz v češtině</v>
       </c>
       <c r="K5" t="s">
         <v>6</v>
@@ -933,7 +951,7 @@
       </c>
       <c r="N5" t="str">
         <f>C5</f>
-        <v>ENG</v>
+        <v>Display in English</v>
       </c>
       <c r="O5" t="s">
         <v>4</v>
@@ -941,17 +959,17 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
         <f>E6&amp;F6&amp;G6&amp;H6&amp;I6&amp;J6&amp;K6&amp;L6&amp;M6&amp;N6&amp;O6</f>
-        <v xml:space="preserve">"#LNG_DelayBetweenCharacters": { "ENG" : "Delay between characters", "CZ" : "Prodleva mezi písmeny" }, </v>
+        <v xml:space="preserve">"#LNG_Choice": { "ENG" : "CZ", "CZ" : "ENG" }, </v>
       </c>
       <c r="E6" t="str">
         <f>""""</f>
@@ -959,7 +977,7 @@
       </c>
       <c r="F6" t="str">
         <f>A6</f>
-        <v>#LNG_DelayBetweenCharacters</v>
+        <v>#LNG_Choice</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -972,7 +990,7 @@
       </c>
       <c r="J6" t="str">
         <f>B6</f>
-        <v>Delay between characters</v>
+        <v>CZ</v>
       </c>
       <c r="K6" t="s">
         <v>6</v>
@@ -986,7 +1004,7 @@
       </c>
       <c r="N6" t="str">
         <f>C6</f>
-        <v>Prodleva mezi písmeny</v>
+        <v>ENG</v>
       </c>
       <c r="O6" t="s">
         <v>4</v>
@@ -994,17 +1012,17 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7" t="str">
         <f>E7&amp;F7&amp;G7&amp;H7&amp;I7&amp;J7&amp;K7&amp;L7&amp;M7&amp;N7&amp;O7</f>
-        <v xml:space="preserve">"#LNG_DelayBetweenSounds": { "ENG" : "Delay between sounds", "CZ" : "Prodleva mezi zvuky" }, </v>
+        <v xml:space="preserve">"#LNG_DelayBetweenCharacters": { "ENG" : "Delay between characters", "CZ" : "Prodleva mezi písmeny" }, </v>
       </c>
       <c r="E7" t="str">
         <f>""""</f>
@@ -1012,7 +1030,7 @@
       </c>
       <c r="F7" t="str">
         <f>A7</f>
-        <v>#LNG_DelayBetweenSounds</v>
+        <v>#LNG_DelayBetweenCharacters</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -1025,7 +1043,7 @@
       </c>
       <c r="J7" t="str">
         <f>B7</f>
-        <v>Delay between sounds</v>
+        <v>Delay between characters</v>
       </c>
       <c r="K7" t="s">
         <v>6</v>
@@ -1039,7 +1057,7 @@
       </c>
       <c r="N7" t="str">
         <f>C7</f>
-        <v>Prodleva mezi zvuky</v>
+        <v>Prodleva mezi písmeny</v>
       </c>
       <c r="O7" t="s">
         <v>4</v>
@@ -1047,17 +1065,17 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" t="str">
         <f>E8&amp;F8&amp;G8&amp;H8&amp;I8&amp;J8&amp;K8&amp;L8&amp;M8&amp;N8&amp;O8</f>
-        <v xml:space="preserve">"#LNG_DelayBetweenTriples": { "ENG" : "Delay between triples", "CZ" : "Prodleva mezi trojicemi" }, </v>
+        <v xml:space="preserve">"#LNG_DelayBetweenSounds": { "ENG" : "Delay between sounds", "CZ" : "Prodleva mezi zvuky" }, </v>
       </c>
       <c r="E8" t="str">
         <f>""""</f>
@@ -1065,7 +1083,7 @@
       </c>
       <c r="F8" t="str">
         <f>A8</f>
-        <v>#LNG_DelayBetweenTriples</v>
+        <v>#LNG_DelayBetweenSounds</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -1078,7 +1096,7 @@
       </c>
       <c r="J8" t="str">
         <f>B8</f>
-        <v>Delay between triples</v>
+        <v>Delay between sounds</v>
       </c>
       <c r="K8" t="s">
         <v>6</v>
@@ -1092,7 +1110,7 @@
       </c>
       <c r="N8" t="str">
         <f>C8</f>
-        <v>Prodleva mezi trojicemi</v>
+        <v>Prodleva mezi zvuky</v>
       </c>
       <c r="O8" t="s">
         <v>4</v>
@@ -1100,17 +1118,17 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" t="str">
         <f>E9&amp;F9&amp;G9&amp;H9&amp;I9&amp;J9&amp;K9&amp;L9&amp;M9&amp;N9&amp;O9</f>
-        <v xml:space="preserve">"#LNG_DelayBetweenWords": { "ENG" : "Delay between words", "CZ" : "Prodleva mezi slovy" }, </v>
+        <v xml:space="preserve">"#LNG_DelayBetweenTriples": { "ENG" : "Delay between triples", "CZ" : "Prodleva mezi trojicemi" }, </v>
       </c>
       <c r="E9" t="str">
         <f>""""</f>
@@ -1118,7 +1136,7 @@
       </c>
       <c r="F9" t="str">
         <f>A9</f>
-        <v>#LNG_DelayBetweenWords</v>
+        <v>#LNG_DelayBetweenTriples</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
@@ -1131,7 +1149,7 @@
       </c>
       <c r="J9" t="str">
         <f>B9</f>
-        <v>Delay between words</v>
+        <v>Delay between triples</v>
       </c>
       <c r="K9" t="s">
         <v>6</v>
@@ -1145,7 +1163,7 @@
       </c>
       <c r="N9" t="str">
         <f>C9</f>
-        <v>Prodleva mezi slovy</v>
+        <v>Prodleva mezi trojicemi</v>
       </c>
       <c r="O9" t="s">
         <v>4</v>
@@ -1153,17 +1171,17 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D10" t="str">
         <f>E10&amp;F10&amp;G10&amp;H10&amp;I10&amp;J10&amp;K10&amp;L10&amp;M10&amp;N10&amp;O10</f>
-        <v xml:space="preserve">"#LNG_Description": { "ENG" : "Appp translates text plays it out in Braille Morse", "CZ" : "Aplikace přeloží text a přehraje v Braillské morzeovce" }, </v>
+        <v xml:space="preserve">"#LNG_DelayBetweenWords": { "ENG" : "Delay between words", "CZ" : "Prodleva mezi slovy" }, </v>
       </c>
       <c r="E10" t="str">
         <f>""""</f>
@@ -1171,7 +1189,7 @@
       </c>
       <c r="F10" t="str">
         <f>A10</f>
-        <v>#LNG_Description</v>
+        <v>#LNG_DelayBetweenWords</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -1184,7 +1202,7 @@
       </c>
       <c r="J10" t="str">
         <f>B10</f>
-        <v>Appp translates text plays it out in Braille Morse</v>
+        <v>Delay between words</v>
       </c>
       <c r="K10" t="s">
         <v>6</v>
@@ -1198,7 +1216,7 @@
       </c>
       <c r="N10" t="str">
         <f>C10</f>
-        <v>Aplikace přeloží text a přehraje v Braillské morzeovce</v>
+        <v>Prodleva mezi slovy</v>
       </c>
       <c r="O10" t="s">
         <v>4</v>
@@ -1206,17 +1224,17 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D11" t="str">
         <f>E11&amp;F11&amp;G11&amp;H11&amp;I11&amp;J11&amp;K11&amp;L11&amp;M11&amp;N11&amp;O11</f>
-        <v xml:space="preserve">"#LNG_DotSound": { "ENG" : "Dot Sound", "CZ" : "Zvuk tečky" }, </v>
+        <v xml:space="preserve">"#LNG_Description": { "ENG" : "Appp translates text plays it out in Braille Morse", "CZ" : "Aplikace přeloží text a přehraje v Braillské morzeovce" }, </v>
       </c>
       <c r="E11" t="str">
         <f>""""</f>
@@ -1224,7 +1242,7 @@
       </c>
       <c r="F11" t="str">
         <f>A11</f>
-        <v>#LNG_DotSound</v>
+        <v>#LNG_Description</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -1237,7 +1255,7 @@
       </c>
       <c r="J11" t="str">
         <f>B11</f>
-        <v>Dot Sound</v>
+        <v>Appp translates text plays it out in Braille Morse</v>
       </c>
       <c r="K11" t="s">
         <v>6</v>
@@ -1251,7 +1269,7 @@
       </c>
       <c r="N11" t="str">
         <f>C11</f>
-        <v>Zvuk tečky</v>
+        <v>Aplikace přeloží text a přehraje v Braillské morzeovce</v>
       </c>
       <c r="O11" t="s">
         <v>4</v>
@@ -1259,17 +1277,17 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D12" t="str">
         <f>E12&amp;F12&amp;G12&amp;H12&amp;I12&amp;J12&amp;K12&amp;L12&amp;M12&amp;N12&amp;O12</f>
-        <v xml:space="preserve">"#LNG_EmptyDotSound": { "ENG" : "Empty Dot Sound", "CZ" : "Zvuk prázdné tečky" }, </v>
+        <v xml:space="preserve">"#LNG_DisplayInfoAboutProgram": { "ENG" : "Show infor about program", "CZ" : "Zobrazí informace o programu" }, </v>
       </c>
       <c r="E12" t="str">
         <f>""""</f>
@@ -1277,7 +1295,7 @@
       </c>
       <c r="F12" t="str">
         <f>A12</f>
-        <v>#LNG_EmptyDotSound</v>
+        <v>#LNG_DisplayInfoAboutProgram</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
@@ -1290,7 +1308,7 @@
       </c>
       <c r="J12" t="str">
         <f>B12</f>
-        <v>Empty Dot Sound</v>
+        <v>Show infor about program</v>
       </c>
       <c r="K12" t="s">
         <v>6</v>
@@ -1304,7 +1322,7 @@
       </c>
       <c r="N12" t="str">
         <f>C12</f>
-        <v>Zvuk prázdné tečky</v>
+        <v>Zobrazí informace o programu</v>
       </c>
       <c r="O12" t="s">
         <v>4</v>
@@ -1312,17 +1330,17 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D13" t="str">
         <f>E13&amp;F13&amp;G13&amp;H13&amp;I13&amp;J13&amp;K13&amp;L13&amp;M13&amp;N13&amp;O13</f>
-        <v xml:space="preserve">"#LNG_EnterSomeText": { "ENG" : "Enter some text to translate and play in Braille Morse", "CZ" : "Zadejte text pro překlad a přehrání v Braillské morzeovce" }, </v>
+        <v xml:space="preserve">"#LNG_DotSound": { "ENG" : "Dot Sound", "CZ" : "Zvuk tečky" }, </v>
       </c>
       <c r="E13" t="str">
         <f>""""</f>
@@ -1330,7 +1348,7 @@
       </c>
       <c r="F13" t="str">
         <f>A13</f>
-        <v>#LNG_EnterSomeText</v>
+        <v>#LNG_DotSound</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
@@ -1343,7 +1361,7 @@
       </c>
       <c r="J13" t="str">
         <f>B13</f>
-        <v>Enter some text to translate and play in Braille Morse</v>
+        <v>Dot Sound</v>
       </c>
       <c r="K13" t="s">
         <v>6</v>
@@ -1357,7 +1375,7 @@
       </c>
       <c r="N13" t="str">
         <f>C13</f>
-        <v>Zadejte text pro překlad a přehrání v Braillské morzeovce</v>
+        <v>Zvuk tečky</v>
       </c>
       <c r="O13" t="s">
         <v>4</v>
@@ -1365,17 +1383,17 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="D14" t="str">
         <f>E14&amp;F14&amp;G14&amp;H14&amp;I14&amp;J14&amp;K14&amp;L14&amp;M14&amp;N14&amp;O14</f>
-        <v xml:space="preserve">"#LNG_Pause": { "ENG" : "Pause", "CZ" : "Pauza" }, </v>
+        <v xml:space="preserve">"#LNG_EmptyDotSound": { "ENG" : "Empty Dot Sound", "CZ" : "Zvuk prázdné tečky" }, </v>
       </c>
       <c r="E14" t="str">
         <f>""""</f>
@@ -1383,7 +1401,7 @@
       </c>
       <c r="F14" t="str">
         <f>A14</f>
-        <v>#LNG_Pause</v>
+        <v>#LNG_EmptyDotSound</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -1396,7 +1414,7 @@
       </c>
       <c r="J14" t="str">
         <f>B14</f>
-        <v>Pause</v>
+        <v>Empty Dot Sound</v>
       </c>
       <c r="K14" t="s">
         <v>6</v>
@@ -1410,7 +1428,7 @@
       </c>
       <c r="N14" t="str">
         <f>C14</f>
-        <v>Pauza</v>
+        <v>Zvuk prázdné tečky</v>
       </c>
       <c r="O14" t="s">
         <v>4</v>
@@ -1418,17 +1436,17 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D15" t="str">
         <f>E15&amp;F15&amp;G15&amp;H15&amp;I15&amp;J15&amp;K15&amp;L15&amp;M15&amp;N15&amp;O15</f>
-        <v xml:space="preserve">"#LNG_Play": { "ENG" : "Play", "CZ" : "Přehraj" }, </v>
+        <v xml:space="preserve">"#LNG_EnterSomeText": { "ENG" : "Enter some text to translate and play in Braille Morse", "CZ" : "Zadejte text pro překlad a přehrání v Braillské morzeovce" }, </v>
       </c>
       <c r="E15" t="str">
         <f>""""</f>
@@ -1436,7 +1454,7 @@
       </c>
       <c r="F15" t="str">
         <f>A15</f>
-        <v>#LNG_Play</v>
+        <v>#LNG_EnterSomeText</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
@@ -1449,7 +1467,7 @@
       </c>
       <c r="J15" t="str">
         <f>B15</f>
-        <v>Play</v>
+        <v>Enter some text to translate and play in Braille Morse</v>
       </c>
       <c r="K15" t="s">
         <v>6</v>
@@ -1463,7 +1481,7 @@
       </c>
       <c r="N15" t="str">
         <f>C15</f>
-        <v>Přehraj</v>
+        <v>Zadejte text pro překlad a přehrání v Braillské morzeovce</v>
       </c>
       <c r="O15" t="s">
         <v>4</v>
@@ -1471,17 +1489,17 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D16" t="str">
         <f>E16&amp;F16&amp;G16&amp;H16&amp;I16&amp;J16&amp;K16&amp;L16&amp;M16&amp;N16&amp;O16</f>
-        <v xml:space="preserve">"#LNG_Settings": { "ENG" : "Settings", "CZ" : "Nastavení" }, </v>
+        <v xml:space="preserve">"#LNG_Pause": { "ENG" : "Pause", "CZ" : "Pauza" }, </v>
       </c>
       <c r="E16" t="str">
         <f>""""</f>
@@ -1489,7 +1507,7 @@
       </c>
       <c r="F16" t="str">
         <f>A16</f>
-        <v>#LNG_Settings</v>
+        <v>#LNG_Pause</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -1502,7 +1520,7 @@
       </c>
       <c r="J16" t="str">
         <f>B16</f>
-        <v>Settings</v>
+        <v>Pause</v>
       </c>
       <c r="K16" t="s">
         <v>6</v>
@@ -1516,7 +1534,7 @@
       </c>
       <c r="N16" t="str">
         <f>C16</f>
-        <v>Nastavení</v>
+        <v>Pauza</v>
       </c>
       <c r="O16" t="s">
         <v>4</v>
@@ -1524,17 +1542,17 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D17" t="str">
         <f>E17&amp;F17&amp;G17&amp;H17&amp;I17&amp;J17&amp;K17&amp;L17&amp;M17&amp;N17&amp;O17</f>
-        <v xml:space="preserve">"#LNG_SoundControls": { "ENG" : "Sound Controls", "CZ" : "Ovladače zvuku" }, </v>
+        <v xml:space="preserve">"#LNG_Play": { "ENG" : "Play", "CZ" : "Přehraj" }, </v>
       </c>
       <c r="E17" t="str">
         <f>""""</f>
@@ -1542,7 +1560,7 @@
       </c>
       <c r="F17" t="str">
         <f>A17</f>
-        <v>#LNG_SoundControls</v>
+        <v>#LNG_Play</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
@@ -1555,7 +1573,7 @@
       </c>
       <c r="J17" t="str">
         <f>B17</f>
-        <v>Sound Controls</v>
+        <v>Play</v>
       </c>
       <c r="K17" t="s">
         <v>6</v>
@@ -1569,7 +1587,7 @@
       </c>
       <c r="N17" t="str">
         <f>C17</f>
-        <v>Ovladače zvuku</v>
+        <v>Přehraj</v>
       </c>
       <c r="O17" t="s">
         <v>4</v>
@@ -1577,17 +1595,17 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D18" t="str">
         <f>E18&amp;F18&amp;G18&amp;H18&amp;I18&amp;J18&amp;K18&amp;L18&amp;M18&amp;N18&amp;O18</f>
-        <v xml:space="preserve">"#LNG_Stop": { "ENG" : "Stop", "CZ" : "Stop" }, </v>
+        <v xml:space="preserve">"#LNG_Settings": { "ENG" : "Settings", "CZ" : "Nastavení" }, </v>
       </c>
       <c r="E18" t="str">
         <f>""""</f>
@@ -1595,7 +1613,7 @@
       </c>
       <c r="F18" t="str">
         <f>A18</f>
-        <v>#LNG_Stop</v>
+        <v>#LNG_Settings</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
@@ -1608,7 +1626,7 @@
       </c>
       <c r="J18" t="str">
         <f>B18</f>
-        <v>Stop</v>
+        <v>Settings</v>
       </c>
       <c r="K18" t="s">
         <v>6</v>
@@ -1622,7 +1640,7 @@
       </c>
       <c r="N18" t="str">
         <f>C18</f>
-        <v>Stop</v>
+        <v>Nastavení</v>
       </c>
       <c r="O18" t="s">
         <v>4</v>
@@ -1630,17 +1648,17 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="D19" t="str">
         <f>E19&amp;F19&amp;G19&amp;H19&amp;I19&amp;J19&amp;K19&amp;L19&amp;M19&amp;N19&amp;O19</f>
-        <v xml:space="preserve">"#LNG_Title": { "ENG" : "Braille to Braille-Morse Translator", "CZ" : "Překladač do braillské morzeovky" }, </v>
+        <v xml:space="preserve">"#LNG_SoundControls": { "ENG" : "Sound Controls", "CZ" : "Ovladače zvuku" }, </v>
       </c>
       <c r="E19" t="str">
         <f>""""</f>
@@ -1648,7 +1666,7 @@
       </c>
       <c r="F19" t="str">
         <f>A19</f>
-        <v>#LNG_Title</v>
+        <v>#LNG_SoundControls</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
@@ -1661,7 +1679,7 @@
       </c>
       <c r="J19" t="str">
         <f>B19</f>
-        <v>Braille to Braille-Morse Translator</v>
+        <v>Sound Controls</v>
       </c>
       <c r="K19" t="s">
         <v>6</v>
@@ -1675,7 +1693,7 @@
       </c>
       <c r="N19" t="str">
         <f>C19</f>
-        <v>Překladač do braillské morzeovky</v>
+        <v>Ovladače zvuku</v>
       </c>
       <c r="O19" t="s">
         <v>4</v>
@@ -1683,17 +1701,17 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="D20" t="str">
         <f>E20&amp;F20&amp;G20&amp;H20&amp;I20&amp;J20&amp;K20&amp;L20&amp;M20&amp;N20&amp;O20</f>
-        <v xml:space="preserve">"#LNG_ToggleSettings": { "ENG" : "Show/hide settings", "CZ" : "Zobrazí/schová nastavení" }, </v>
+        <v xml:space="preserve">"#LNG_Stop": { "ENG" : "Stop", "CZ" : "Stop" }, </v>
       </c>
       <c r="E20" t="str">
         <f>""""</f>
@@ -1701,7 +1719,7 @@
       </c>
       <c r="F20" t="str">
         <f>A20</f>
-        <v>#LNG_ToggleSettings</v>
+        <v>#LNG_Stop</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
@@ -1714,7 +1732,7 @@
       </c>
       <c r="J20" t="str">
         <f>B20</f>
-        <v>Show/hide settings</v>
+        <v>Stop</v>
       </c>
       <c r="K20" t="s">
         <v>6</v>
@@ -1728,7 +1746,7 @@
       </c>
       <c r="N20" t="str">
         <f>C20</f>
-        <v>Zobrazí/schová nastavení</v>
+        <v>Stop</v>
       </c>
       <c r="O20" t="s">
         <v>4</v>
@@ -1736,17 +1754,17 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D21" t="str">
         <f>E21&amp;F21&amp;G21&amp;H21&amp;I21&amp;J21&amp;K21&amp;L21&amp;M21&amp;N21&amp;O21</f>
-        <v xml:space="preserve">"#LNG_ToggleSoundControls": { "ENG" : "Show / hide sound controls", "CZ" : "Zobrazí / schová ovládače zvuku" }, </v>
+        <v xml:space="preserve">"#LNG_Title": { "ENG" : "Braille to Braille-Morse Translator", "CZ" : "Překladač do braillské morzeovky" }, </v>
       </c>
       <c r="E21" t="str">
         <f>""""</f>
@@ -1754,7 +1772,7 @@
       </c>
       <c r="F21" t="str">
         <f>A21</f>
-        <v>#LNG_ToggleSoundControls</v>
+        <v>#LNG_Title</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
@@ -1767,7 +1785,7 @@
       </c>
       <c r="J21" t="str">
         <f>B21</f>
-        <v>Show / hide sound controls</v>
+        <v>Braille to Braille-Morse Translator</v>
       </c>
       <c r="K21" t="s">
         <v>6</v>
@@ -1781,7 +1799,7 @@
       </c>
       <c r="N21" t="str">
         <f>C21</f>
-        <v>Zobrazí / schová ovládače zvuku</v>
+        <v>Překladač do braillské morzeovky</v>
       </c>
       <c r="O21" t="s">
         <v>4</v>
@@ -1789,17 +1807,17 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D22" t="str">
         <f>E22&amp;F22&amp;G22&amp;H22&amp;I22&amp;J22&amp;K22&amp;L22&amp;M22&amp;N22&amp;O22</f>
-        <v xml:space="preserve">"#LNG_ToggleVisualTranslation": { "ENG" : "Show / hide visual Braille Translation", "CZ" : "Zobrazí / schová braillský překlad" }, </v>
+        <v xml:space="preserve">"#LNG_ToggleSettings": { "ENG" : "Show/hide settings", "CZ" : "Zobrazí/schová nastavení" }, </v>
       </c>
       <c r="E22" t="str">
         <f>""""</f>
@@ -1807,7 +1825,7 @@
       </c>
       <c r="F22" t="str">
         <f>A22</f>
-        <v>#LNG_ToggleVisualTranslation</v>
+        <v>#LNG_ToggleSettings</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
@@ -1820,7 +1838,7 @@
       </c>
       <c r="J22" t="str">
         <f>B22</f>
-        <v>Show / hide visual Braille Translation</v>
+        <v>Show/hide settings</v>
       </c>
       <c r="K22" t="s">
         <v>6</v>
@@ -1834,7 +1852,7 @@
       </c>
       <c r="N22" t="str">
         <f>C22</f>
-        <v>Zobrazí / schová braillský překlad</v>
+        <v>Zobrazí/schová nastavení</v>
       </c>
       <c r="O22" t="s">
         <v>4</v>
@@ -1842,17 +1860,17 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D23" t="str">
         <f>E23&amp;F23&amp;G23&amp;H23&amp;I23&amp;J23&amp;K23&amp;L23&amp;M23&amp;N23&amp;O23</f>
-        <v xml:space="preserve">"#LNG_YourMessage": { "ENG" : "Your message", "CZ" : "Vaše zpráva" }, </v>
+        <v xml:space="preserve">"#LNG_ToggleSoundControls": { "ENG" : "Show / hide sound controls", "CZ" : "Zobrazí / schová ovládače zvuku" }, </v>
       </c>
       <c r="E23" t="str">
         <f>""""</f>
@@ -1860,7 +1878,7 @@
       </c>
       <c r="F23" t="str">
         <f>A23</f>
-        <v>#LNG_YourMessage</v>
+        <v>#LNG_ToggleSoundControls</v>
       </c>
       <c r="G23" t="s">
         <v>5</v>
@@ -1873,7 +1891,7 @@
       </c>
       <c r="J23" t="str">
         <f>B23</f>
-        <v>Your message</v>
+        <v>Show / hide sound controls</v>
       </c>
       <c r="K23" t="s">
         <v>6</v>
@@ -1887,7 +1905,7 @@
       </c>
       <c r="N23" t="str">
         <f>C23</f>
-        <v>Vaše zpráva</v>
+        <v>Zobrazí / schová ovládače zvuku</v>
       </c>
       <c r="O23" t="s">
         <v>4</v>
@@ -1895,17 +1913,17 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D24" t="str">
         <f>E24&amp;F24&amp;G24&amp;H24&amp;I24&amp;J24&amp;K24&amp;L24&amp;M24&amp;N24&amp;O24</f>
-        <v xml:space="preserve">"#LNG_ZoomIn": { "ENG" : "Zoom in", "CZ" : "Přiblížit" }, </v>
+        <v xml:space="preserve">"#LNG_ToggleVisualTranslation": { "ENG" : "Show / hide visual Braille Translation", "CZ" : "Zobrazí / schová braillský překlad" }, </v>
       </c>
       <c r="E24" t="str">
         <f>""""</f>
@@ -1913,7 +1931,7 @@
       </c>
       <c r="F24" t="str">
         <f>A24</f>
-        <v>#LNG_ZoomIn</v>
+        <v>#LNG_ToggleVisualTranslation</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
@@ -1926,7 +1944,7 @@
       </c>
       <c r="J24" t="str">
         <f>B24</f>
-        <v>Zoom in</v>
+        <v>Show / hide visual Braille Translation</v>
       </c>
       <c r="K24" t="s">
         <v>6</v>
@@ -1940,7 +1958,7 @@
       </c>
       <c r="N24" t="str">
         <f>C24</f>
-        <v>Přiblížit</v>
+        <v>Zobrazí / schová braillský překlad</v>
       </c>
       <c r="O24" t="s">
         <v>4</v>
@@ -1948,17 +1966,17 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D25" t="str">
         <f>E25&amp;F25&amp;G25&amp;H25&amp;I25&amp;J25&amp;K25&amp;L25&amp;M25&amp;N25&amp;O25</f>
-        <v xml:space="preserve">"#LNG_ZoonOut": { "ENG" : "Zoom out", "CZ" : "Oddálit" }, </v>
+        <v xml:space="preserve">"#LNG_YourMessage": { "ENG" : "Your message", "CZ" : "Vaše zpráva" }, </v>
       </c>
       <c r="E25" t="str">
         <f>""""</f>
@@ -1966,7 +1984,7 @@
       </c>
       <c r="F25" t="str">
         <f>A25</f>
-        <v>#LNG_ZoonOut</v>
+        <v>#LNG_YourMessage</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
@@ -1979,7 +1997,7 @@
       </c>
       <c r="J25" t="str">
         <f>B25</f>
-        <v>Zoom out</v>
+        <v>Your message</v>
       </c>
       <c r="K25" t="s">
         <v>6</v>
@@ -1993,14 +2011,120 @@
       </c>
       <c r="N25" t="str">
         <f>C25</f>
+        <v>Vaše zpráva</v>
+      </c>
+      <c r="O25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="str">
+        <f>E26&amp;F26&amp;G26&amp;H26&amp;I26&amp;J26&amp;K26&amp;L26&amp;M26&amp;N26&amp;O26</f>
+        <v xml:space="preserve">"#LNG_ZoomIn": { "ENG" : "Zoom in", "CZ" : "Přiblížit" }, </v>
+      </c>
+      <c r="E26" t="str">
+        <f>""""</f>
+        <v>"</v>
+      </c>
+      <c r="F26" t="str">
+        <f>A26</f>
+        <v>#LNG_ZoomIn</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" t="str">
+        <f>B26</f>
+        <v>Zoom in</v>
+      </c>
+      <c r="K26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" t="str">
+        <f>C$1</f>
+        <v>CZ</v>
+      </c>
+      <c r="M26" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" t="str">
+        <f>C26</f>
+        <v>Přiblížit</v>
+      </c>
+      <c r="O26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="str">
+        <f>E27&amp;F27&amp;G27&amp;H27&amp;I27&amp;J27&amp;K27&amp;L27&amp;M27&amp;N27&amp;O27</f>
+        <v xml:space="preserve">"#LNG_ZoonOut": { "ENG" : "Zoom out", "CZ" : "Oddálit" }, </v>
+      </c>
+      <c r="E27" t="str">
+        <f>""""</f>
+        <v>"</v>
+      </c>
+      <c r="F27" t="str">
+        <f>A27</f>
+        <v>#LNG_ZoonOut</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" t="str">
+        <f>B27</f>
+        <v>Zoom out</v>
+      </c>
+      <c r="K27" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" t="str">
+        <f>C$1</f>
+        <v>CZ</v>
+      </c>
+      <c r="M27" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" t="str">
+        <f>C27</f>
         <v>Oddálit</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O27" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O27">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
